--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -158,6 +158,26 @@
     <t>プレーヤーにタグ</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>進捗</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HUD画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Result画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HUDデータ設計</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リストのフローティング</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +190,7 @@
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +235,14 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -405,12 +433,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +496,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -485,14 +517,262 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -591,6 +871,126 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -891,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -902,38 +1302,37 @@
     <col min="1" max="2" width="1.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.83203125" style="8" customWidth="1"/>
-    <col min="7" max="70" width="3.1640625" style="8" customWidth="1"/>
-    <col min="71" max="16384" width="8.83203125" style="8"/>
+    <col min="5" max="5" width="5.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="6.83203125" style="8" customWidth="1"/>
+    <col min="8" max="71" width="3.1640625" style="8" customWidth="1"/>
+    <col min="72" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="G2" s="9">
-        <f>G3</f>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="34"/>
+      <c r="H2" s="9">
+        <f>H3</f>
         <v>42934</v>
       </c>
-      <c r="H2" s="10" t="str">
-        <f>IF(DAY(H3)=1,MONTH(H3),"")</f>
-        <v/>
-      </c>
       <c r="I2" s="10" t="str">
-        <f t="shared" ref="I2:AF2" si="0">IF(DAY(I3)=1,MONTH(I3),"")</f>
+        <f>IF(DAY(I3)=1,MONTH(I3),"")</f>
         <v/>
       </c>
       <c r="J2" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J2:AG2" si="0">IF(DAY(J3)=1,MONTH(J3),"")</f>
         <v/>
       </c>
       <c r="K2" s="10" t="str">
@@ -976,14 +1375,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V2" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="V2" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="W2" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1024,246 +1423,253 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG2" s="32" t="str">
-        <f t="shared" ref="AG2" si="1">IF(DAY(AG3)=1,MONTH(AG3),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="11">
+      <c r="AG2" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH2" s="24" t="str">
+        <f t="shared" ref="AH2" si="1">IF(DAY(AH3)=1,MONTH(AH3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="11">
         <f>Config!B3</f>
         <v>42934</v>
       </c>
-      <c r="H3" s="11">
-        <f>G3+1</f>
-        <v>42935</v>
-      </c>
       <c r="I3" s="11">
         <f>H3+1</f>
+        <v>42935</v>
+      </c>
+      <c r="J3" s="11">
+        <f>I3+1</f>
         <v>42936</v>
       </c>
-      <c r="J3" s="11">
-        <f t="shared" ref="J3:AG3" si="2">I3+1</f>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:AH3" si="2">J3+1</f>
         <v>42937</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <f t="shared" si="2"/>
         <v>42938</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <f t="shared" si="2"/>
         <v>42939</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <f t="shared" si="2"/>
         <v>42940</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <f t="shared" si="2"/>
         <v>42941</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <f t="shared" si="2"/>
         <v>42943</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <f t="shared" si="2"/>
         <v>42944</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <f t="shared" si="2"/>
         <v>42945</v>
       </c>
-      <c r="S3" s="11">
+      <c r="T3" s="11">
         <f t="shared" si="2"/>
         <v>42946</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <f t="shared" si="2"/>
         <v>42947</v>
       </c>
-      <c r="U3" s="11">
+      <c r="V3" s="11">
         <f t="shared" si="2"/>
         <v>42948</v>
       </c>
-      <c r="V3" s="11">
+      <c r="W3" s="11">
         <f t="shared" si="2"/>
         <v>42949</v>
       </c>
-      <c r="W3" s="11">
+      <c r="X3" s="11">
         <f t="shared" si="2"/>
         <v>42950</v>
       </c>
-      <c r="X3" s="11">
+      <c r="Y3" s="11">
         <f t="shared" si="2"/>
         <v>42951</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Z3" s="11">
         <f t="shared" si="2"/>
         <v>42952</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="AA3" s="11">
         <f t="shared" si="2"/>
         <v>42953</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AB3" s="11">
         <f t="shared" si="2"/>
         <v>42954</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AC3" s="11">
         <f t="shared" si="2"/>
         <v>42955</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AD3" s="11">
         <f t="shared" si="2"/>
         <v>42956</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AE3" s="11">
         <f t="shared" si="2"/>
         <v>42957</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AF3" s="11">
         <f t="shared" si="2"/>
         <v>42958</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AG3" s="11">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AH3" s="11">
         <f t="shared" si="2"/>
         <v>42960</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
-        <f>WEEKDAY(G3,1)</f>
+      <c r="H4" s="13">
+        <f>WEEKDAY(H3,1)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="13">
-        <f t="shared" ref="H4:X4" si="3">WEEKDAY(H3,1)</f>
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:Y4" si="3">WEEKDAY(I3,1)</f>
         <v>4</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K4" s="13">
+      <c r="L4" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L4" s="13">
+      <c r="M4" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M4" s="13">
+      <c r="N4" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="R4" s="13">
+      <c r="S4" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="S4" s="13">
+      <c r="T4" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T4" s="13">
+      <c r="U4" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U4" s="13">
+      <c r="V4" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="V4" s="13">
+      <c r="W4" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="W4" s="13">
+      <c r="X4" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="X4" s="13">
+      <c r="Y4" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Y4" s="13">
-        <f t="shared" ref="Y4" si="4">WEEKDAY(Y3,1)</f>
+      <c r="Z4" s="13">
+        <f t="shared" ref="Z4" si="4">WEEKDAY(Z3,1)</f>
         <v>7</v>
       </c>
-      <c r="Z4" s="13">
-        <f t="shared" ref="Z4" si="5">WEEKDAY(Z3,1)</f>
+      <c r="AA4" s="13">
+        <f t="shared" ref="AA4" si="5">WEEKDAY(AA3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA4" s="13">
-        <f t="shared" ref="AA4" si="6">WEEKDAY(AA3,1)</f>
+      <c r="AB4" s="13">
+        <f t="shared" ref="AB4" si="6">WEEKDAY(AB3,1)</f>
         <v>2</v>
       </c>
-      <c r="AB4" s="13">
-        <f t="shared" ref="AB4" si="7">WEEKDAY(AB3,1)</f>
+      <c r="AC4" s="13">
+        <f t="shared" ref="AC4" si="7">WEEKDAY(AC3,1)</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="13">
-        <f t="shared" ref="AC4" si="8">WEEKDAY(AC3,1)</f>
+      <c r="AD4" s="13">
+        <f t="shared" ref="AD4" si="8">WEEKDAY(AD3,1)</f>
         <v>4</v>
       </c>
-      <c r="AD4" s="13">
-        <f t="shared" ref="AD4" si="9">WEEKDAY(AD3,1)</f>
+      <c r="AE4" s="13">
+        <f t="shared" ref="AE4" si="9">WEEKDAY(AE3,1)</f>
         <v>5</v>
       </c>
-      <c r="AE4" s="13">
-        <f t="shared" ref="AE4" si="10">WEEKDAY(AE3,1)</f>
+      <c r="AF4" s="13">
+        <f t="shared" ref="AF4" si="10">WEEKDAY(AF3,1)</f>
         <v>6</v>
       </c>
-      <c r="AF4" s="13">
-        <f t="shared" ref="AF4" si="11">WEEKDAY(AF3,1)</f>
+      <c r="AG4" s="13">
+        <f t="shared" ref="AG4" si="11">WEEKDAY(AG3,1)</f>
         <v>7</v>
       </c>
-      <c r="AG4" s="13">
-        <f t="shared" ref="AG4" si="12">WEEKDAY(AG3,1)</f>
+      <c r="AH4" s="13">
+        <f t="shared" ref="AH4" si="12">WEEKDAY(AH3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1272,123 +1678,126 @@
       <c r="D5" s="17">
         <v>18</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="21">
         <v>42934</v>
       </c>
-      <c r="F5" s="22">
-        <f t="shared" ref="F5:F32" si="13">IF(D5="","",WORKDAY(E5,D5,非稼働日)-1)</f>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G38" si="13">IF(D5="","",WORKDAY(F5,D5,非稼働日)-1)</f>
         <v>42960</v>
       </c>
-      <c r="G5" s="18">
-        <f>IF($D5="","",IF((G$3&gt;=$E5)*AND(G$3&lt;=$F5),IF($A5="",IF($B5="",3,2),1),""))</f>
+      <c r="H5" s="18">
+        <f>IF($D5="","",IF((H$3&gt;=$F5)*AND(H$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="H5" s="18">
-        <f t="shared" ref="H5:AG9" si="14">IF($D5="","",IF((H$3&gt;=$E5)*AND(H$3&lt;=$F5),IF($A5="",IF($B5="",3,2),1),""))</f>
+      <c r="I5" s="18">
+        <f>IF($D5="","",IF((I$3&gt;=$F5)*AND(I$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="I5" s="18">
-        <f t="shared" si="14"/>
+      <c r="J5" s="18">
+        <f>IF($D5="","",IF((J$3&gt;=$F5)*AND(J$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="18">
-        <f t="shared" si="14"/>
+      <c r="K5" s="18">
+        <f>IF($D5="","",IF((K$3&gt;=$F5)*AND(K$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="K5" s="18">
-        <f t="shared" si="14"/>
+      <c r="L5" s="18">
+        <f>IF($D5="","",IF((L$3&gt;=$F5)*AND(L$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="L5" s="18">
-        <f t="shared" si="14"/>
+      <c r="M5" s="18">
+        <f>IF($D5="","",IF((M$3&gt;=$F5)*AND(M$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="M5" s="18">
-        <f t="shared" si="14"/>
+      <c r="N5" s="18">
+        <f>IF($D5="","",IF((N$3&gt;=$F5)*AND(N$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="N5" s="18">
-        <f t="shared" si="14"/>
+      <c r="O5" s="18">
+        <f>IF($D5="","",IF((O$3&gt;=$F5)*AND(O$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="O5" s="18">
-        <f t="shared" si="14"/>
+      <c r="P5" s="18">
+        <f>IF($D5="","",IF((P$3&gt;=$F5)*AND(P$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="P5" s="18">
-        <f t="shared" si="14"/>
+      <c r="Q5" s="18">
+        <f>IF($D5="","",IF((Q$3&gt;=$F5)*AND(Q$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="18">
-        <f t="shared" si="14"/>
+      <c r="R5" s="18">
+        <f>IF($D5="","",IF((R$3&gt;=$F5)*AND(R$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="R5" s="18">
-        <f t="shared" si="14"/>
+      <c r="S5" s="18">
+        <f>IF($D5="","",IF((S$3&gt;=$F5)*AND(S$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="S5" s="18">
-        <f t="shared" si="14"/>
+      <c r="T5" s="18">
+        <f>IF($D5="","",IF((T$3&gt;=$F5)*AND(T$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="T5" s="18">
-        <f t="shared" si="14"/>
+      <c r="U5" s="18">
+        <f>IF($D5="","",IF((U$3&gt;=$F5)*AND(U$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="U5" s="18">
-        <f t="shared" si="14"/>
+      <c r="V5" s="18">
+        <f>IF($D5="","",IF((V$3&gt;=$F5)*AND(V$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="V5" s="18">
-        <f t="shared" si="14"/>
+      <c r="W5" s="18">
+        <f>IF($D5="","",IF((W$3&gt;=$F5)*AND(W$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="W5" s="18">
-        <f t="shared" si="14"/>
+      <c r="X5" s="18">
+        <f>IF($D5="","",IF((X$3&gt;=$F5)*AND(X$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="X5" s="18">
-        <f t="shared" si="14"/>
+      <c r="Y5" s="18">
+        <f>IF($D5="","",IF((Y$3&gt;=$F5)*AND(Y$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="Y5" s="18">
-        <f t="shared" si="14"/>
+      <c r="Z5" s="18">
+        <f>IF($D5="","",IF((Z$3&gt;=$F5)*AND(Z$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="Z5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AA5" s="18">
+        <f>IF($D5="","",IF((AA$3&gt;=$F5)*AND(AA$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AA5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AB5" s="18">
+        <f>IF($D5="","",IF((AB$3&gt;=$F5)*AND(AB$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AB5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AC5" s="18">
+        <f>IF($D5="","",IF((AC$3&gt;=$F5)*AND(AC$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AC5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AD5" s="18">
+        <f>IF($D5="","",IF((AD$3&gt;=$F5)*AND(AD$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AE5" s="18">
+        <f>IF($D5="","",IF((AE$3&gt;=$F5)*AND(AE$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AE5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AF5" s="18">
+        <f>IF($D5="","",IF((AF$3&gt;=$F5)*AND(AF$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AF5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AG5" s="18">
+        <f>IF($D5="","",IF((AG$3&gt;=$F5)*AND(AG$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
-      <c r="AG5" s="18">
-        <f t="shared" si="14"/>
+      <c r="AH5" s="18">
+        <f>IF($D5="","",IF((AH$3&gt;=$F5)*AND(AH$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -1397,123 +1806,126 @@
       <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
         <v>42934</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <f t="shared" si="13"/>
         <v>42935</v>
       </c>
-      <c r="G6" s="18">
-        <f t="shared" ref="G6:V32" si="15">IF($D6="","",IF((G$3&gt;=$E6)*AND(G$3&lt;=$F6),IF($A6="",IF($B6="",3,2),1),""))</f>
+      <c r="H6" s="18">
+        <f>IF($D6="","",IF((H$3&gt;=$F6)*AND(H$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v>2</v>
       </c>
-      <c r="H6" s="18">
-        <f t="shared" si="15"/>
+      <c r="I6" s="18">
+        <f>IF($D6="","",IF((I$3&gt;=$F6)*AND(I$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v>2</v>
       </c>
-      <c r="I6" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="J6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((J$3&gt;=$F6)*AND(J$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((K$3&gt;=$F6)*AND(K$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((L$3&gt;=$F6)*AND(L$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((M$3&gt;=$F6)*AND(M$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="N6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((N$3&gt;=$F6)*AND(N$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((O$3&gt;=$F6)*AND(O$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((P$3&gt;=$F6)*AND(P$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((Q$3&gt;=$F6)*AND(Q$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((R$3&gt;=$F6)*AND(R$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((S$3&gt;=$F6)*AND(S$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((T$3&gt;=$F6)*AND(T$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((U$3&gt;=$F6)*AND(U$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V6" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D6="","",IF((V$3&gt;=$F6)*AND(V$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((W$3&gt;=$F6)*AND(W$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((X$3&gt;=$F6)*AND(X$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((Y$3&gt;=$F6)*AND(Y$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((Z$3&gt;=$F6)*AND(Z$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AA$3&gt;=$F6)*AND(AA$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AB$3&gt;=$F6)*AND(AB$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AC$3&gt;=$F6)*AND(AC$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AD$3&gt;=$F6)*AND(AD$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AE$3&gt;=$F6)*AND(AE$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D6="","",IF((AF$3&gt;=$F6)*AND(AF$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG6" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D6="","",IF((AG$3&gt;=$F6)*AND(AG$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH6" s="18" t="str">
+        <f>IF($D6="","",IF((AH$3&gt;=$F6)*AND(AH$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
@@ -1522,123 +1934,126 @@
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
         <v>42934</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <f t="shared" si="13"/>
         <v>42934</v>
       </c>
-      <c r="G7" s="18">
-        <f t="shared" si="15"/>
+      <c r="H7" s="18">
+        <f>IF($D7="","",IF((H$3&gt;=$F7)*AND(H$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="H7" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
       <c r="I7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((I$3&gt;=$F7)*AND(I$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((J$3&gt;=$F7)*AND(J$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((K$3&gt;=$F7)*AND(K$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((L$3&gt;=$F7)*AND(L$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((M$3&gt;=$F7)*AND(M$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="N7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((N$3&gt;=$F7)*AND(N$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((O$3&gt;=$F7)*AND(O$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((P$3&gt;=$F7)*AND(P$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((Q$3&gt;=$F7)*AND(Q$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((R$3&gt;=$F7)*AND(R$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((S$3&gt;=$F7)*AND(S$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((T$3&gt;=$F7)*AND(T$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((U$3&gt;=$F7)*AND(U$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((V$3&gt;=$F7)*AND(V$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((W$3&gt;=$F7)*AND(W$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((X$3&gt;=$F7)*AND(X$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((Y$3&gt;=$F7)*AND(Y$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((Z$3&gt;=$F7)*AND(Z$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AA$3&gt;=$F7)*AND(AA$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AB$3&gt;=$F7)*AND(AB$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AC$3&gt;=$F7)*AND(AC$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AD$3&gt;=$F7)*AND(AD$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AE$3&gt;=$F7)*AND(AE$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D7="","",IF((AF$3&gt;=$F7)*AND(AF$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG7" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D7="","",IF((AG$3&gt;=$F7)*AND(AG$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH7" s="18" t="str">
+        <f>IF($D7="","",IF((AH$3&gt;=$F7)*AND(AH$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
@@ -1647,123 +2062,126 @@
       <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
         <v>42934</v>
       </c>
-      <c r="F8" s="22">
+      <c r="G8" s="22">
         <f t="shared" si="13"/>
         <v>42935</v>
       </c>
-      <c r="G8" s="18">
-        <f t="shared" si="15"/>
+      <c r="H8" s="18">
+        <f>IF($D8="","",IF((H$3&gt;=$F8)*AND(H$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" si="14"/>
+      <c r="I8" s="18">
+        <f>IF($D8="","",IF((I$3&gt;=$F8)*AND(I$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="I8" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
       <c r="J8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((J$3&gt;=$F8)*AND(J$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((K$3&gt;=$F8)*AND(K$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((L$3&gt;=$F8)*AND(L$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((M$3&gt;=$F8)*AND(M$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="N8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((N$3&gt;=$F8)*AND(N$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((O$3&gt;=$F8)*AND(O$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((P$3&gt;=$F8)*AND(P$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((Q$3&gt;=$F8)*AND(Q$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((R$3&gt;=$F8)*AND(R$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((S$3&gt;=$F8)*AND(S$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((T$3&gt;=$F8)*AND(T$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((U$3&gt;=$F8)*AND(U$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((V$3&gt;=$F8)*AND(V$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((W$3&gt;=$F8)*AND(W$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((X$3&gt;=$F8)*AND(X$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((Y$3&gt;=$F8)*AND(Y$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((Z$3&gt;=$F8)*AND(Z$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AA$3&gt;=$F8)*AND(AA$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AB$3&gt;=$F8)*AND(AB$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AC$3&gt;=$F8)*AND(AC$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AD$3&gt;=$F8)*AND(AD$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AE$3&gt;=$F8)*AND(AE$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($D8="","",IF((AF$3&gt;=$F8)*AND(AF$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG8" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D8="","",IF((AG$3&gt;=$F8)*AND(AG$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH8" s="18" t="str">
+        <f>IF($D8="","",IF((AH$3&gt;=$F8)*AND(AH$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
@@ -1772,2251 +2190,2223 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
-        <v>42934</v>
-      </c>
-      <c r="F9" s="22">
-        <f t="shared" si="13"/>
-        <v>42934</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="R9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="T9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y9" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z9" s="18" t="str">
-        <f t="shared" ref="H9:AG14" si="16">IF($D9="","",IF((Z$3&gt;=$E9)*AND(Z$3&lt;=$F9),IF($A9="",IF($B9="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AA9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AB9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AC9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AD9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AE9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AF9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AG9" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
-        <v>12</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
         <v>42935</v>
       </c>
-      <c r="F10" s="22">
-        <f t="shared" si="13"/>
-        <v>42950</v>
-      </c>
-      <c r="G10" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="Q10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="S10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="T10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="U10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="V10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="W10" s="18">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="X10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Y10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Z10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AA10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AB10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AC10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AD10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AE10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AF10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AG10" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>42935</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="G9" s="22">
         <f t="shared" si="13"/>
         <v>42935</v>
       </c>
-      <c r="G11" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="16"/>
+      <c r="H9" s="18" t="str">
+        <f>IF($D9="","",IF((H$3&gt;=$F9)*AND(H$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="18">
+        <f>IF($D9="","",IF((I$3&gt;=$F9)*AND(I$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="I11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="S11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="T11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="V11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Y11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Z11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AA11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+      <c r="J9" s="18" t="str">
+        <f>IF($D9="","",IF((J$3&gt;=$F9)*AND(J$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f>IF($D9="","",IF((K$3&gt;=$F9)*AND(K$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f>IF($D9="","",IF((L$3&gt;=$F9)*AND(L$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="M9" s="18" t="str">
+        <f>IF($D9="","",IF((M$3&gt;=$F9)*AND(M$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="N9" s="18" t="str">
+        <f>IF($D9="","",IF((N$3&gt;=$F9)*AND(N$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="O9" s="18" t="str">
+        <f>IF($D9="","",IF((O$3&gt;=$F9)*AND(O$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="P9" s="18" t="str">
+        <f>IF($D9="","",IF((P$3&gt;=$F9)*AND(P$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Q9" s="18" t="str">
+        <f>IF($D9="","",IF((Q$3&gt;=$F9)*AND(Q$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="R9" s="18" t="str">
+        <f>IF($D9="","",IF((R$3&gt;=$F9)*AND(R$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="S9" s="18" t="str">
+        <f>IF($D9="","",IF((S$3&gt;=$F9)*AND(S$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="T9" s="18" t="str">
+        <f>IF($D9="","",IF((T$3&gt;=$F9)*AND(T$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="U9" s="18" t="str">
+        <f>IF($D9="","",IF((U$3&gt;=$F9)*AND(U$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="V9" s="18" t="str">
+        <f>IF($D9="","",IF((V$3&gt;=$F9)*AND(V$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="W9" s="18" t="str">
+        <f>IF($D9="","",IF((W$3&gt;=$F9)*AND(W$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="X9" s="18" t="str">
+        <f>IF($D9="","",IF((X$3&gt;=$F9)*AND(X$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Y9" s="18" t="str">
+        <f>IF($D9="","",IF((Y$3&gt;=$F9)*AND(Y$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Z9" s="18" t="str">
+        <f>IF($D9="","",IF((Z$3&gt;=$F9)*AND(Z$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AA9" s="18" t="str">
+        <f>IF($D9="","",IF((AA$3&gt;=$F9)*AND(AA$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AB9" s="18" t="str">
+        <f>IF($D9="","",IF((AB$3&gt;=$F9)*AND(AB$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AC9" s="18" t="str">
+        <f>IF($D9="","",IF((AC$3&gt;=$F9)*AND(AC$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AD9" s="18" t="str">
+        <f>IF($D9="","",IF((AD$3&gt;=$F9)*AND(AD$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AE9" s="18" t="str">
+        <f>IF($D9="","",IF((AE$3&gt;=$F9)*AND(AE$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AF9" s="18" t="str">
+        <f>IF($D9="","",IF((AF$3&gt;=$F9)*AND(AF$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AG9" s="18" t="str">
+        <f>IF($D9="","",IF((AG$3&gt;=$F9)*AND(AG$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH9" s="18" t="str">
+        <f>IF($D9="","",IF((AH$3&gt;=$F9)*AND(AH$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
+        <v>13</v>
+      </c>
+      <c r="E11" s="36">
+        <f>SUM(E12:E24)/COUNT(E12:E24)</f>
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="F11" s="21">
+        <v>42935</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="13"/>
+        <v>42953</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f>IF($D11="","",IF((H$3&gt;=$F11)*AND(H$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="18">
+        <f>IF($D11="","",IF((I$3&gt;=$F11)*AND(I$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="18">
+        <f>IF($D11="","",IF((J$3&gt;=$F11)*AND(J$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="18">
+        <f>IF($D11="","",IF((K$3&gt;=$F11)*AND(K$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="18">
+        <f>IF($D11="","",IF((L$3&gt;=$F11)*AND(L$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="18">
+        <f>IF($D11="","",IF((M$3&gt;=$F11)*AND(M$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="18">
+        <f>IF($D11="","",IF((N$3&gt;=$F11)*AND(N$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="18">
+        <f>IF($D11="","",IF((O$3&gt;=$F11)*AND(O$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="18">
+        <f>IF($D11="","",IF((P$3&gt;=$F11)*AND(P$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>IF($D11="","",IF((Q$3&gt;=$F11)*AND(Q$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="R11" s="18">
+        <f>IF($D11="","",IF((R$3&gt;=$F11)*AND(R$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="18">
+        <f>IF($D11="","",IF((S$3&gt;=$F11)*AND(S$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="T11" s="18">
+        <f>IF($D11="","",IF((T$3&gt;=$F11)*AND(T$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="18">
+        <f>IF($D11="","",IF((U$3&gt;=$F11)*AND(U$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="18">
+        <f>IF($D11="","",IF((V$3&gt;=$F11)*AND(V$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="W11" s="18">
+        <f>IF($D11="","",IF((W$3&gt;=$F11)*AND(W$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="X11" s="18">
+        <f>IF($D11="","",IF((X$3&gt;=$F11)*AND(X$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="Y11" s="18">
+        <f>IF($D11="","",IF((Y$3&gt;=$F11)*AND(Y$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="Z11" s="18">
+        <f>IF($D11="","",IF((Z$3&gt;=$F11)*AND(Z$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="18">
+        <f>IF($D11="","",IF((AA$3&gt;=$F11)*AND(AA$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v>2</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D11="","",IF((AB$3&gt;=$F11)*AND(AB$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC11" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D11="","",IF((AC$3&gt;=$F11)*AND(AC$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD11" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D11="","",IF((AD$3&gt;=$F11)*AND(AD$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE11" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D11="","",IF((AE$3&gt;=$F11)*AND(AE$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF11" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D11="","",IF((AF$3&gt;=$F11)*AND(AF$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG11" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D11="","",IF((AG$3&gt;=$F11)*AND(AG$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH11" s="18" t="str">
+        <f>IF($D11="","",IF((AH$3&gt;=$F11)*AND(AH$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21">
-        <v>42936</v>
-      </c>
-      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>42935</v>
+      </c>
+      <c r="G12" s="22">
         <f t="shared" si="13"/>
-        <v>42939</v>
-      </c>
-      <c r="G12" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42935</v>
       </c>
       <c r="H12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((H$3&gt;=$F12)*AND(H$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((I$3&gt;=$F12)*AND(I$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="J12" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
+      <c r="J12" s="18" t="str">
+        <f>IF($D12="","",IF((J$3&gt;=$F12)*AND(J$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f>IF($D12="","",IF((K$3&gt;=$F12)*AND(K$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f>IF($D12="","",IF((L$3&gt;=$F12)*AND(L$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="M12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((M$3&gt;=$F12)*AND(M$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="N12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((N$3&gt;=$F12)*AND(N$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((O$3&gt;=$F12)*AND(O$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((P$3&gt;=$F12)*AND(P$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((Q$3&gt;=$F12)*AND(Q$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((R$3&gt;=$F12)*AND(R$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((S$3&gt;=$F12)*AND(S$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((T$3&gt;=$F12)*AND(T$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((U$3&gt;=$F12)*AND(U$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((V$3&gt;=$F12)*AND(V$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((W$3&gt;=$F12)*AND(W$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((X$3&gt;=$F12)*AND(X$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((Y$3&gt;=$F12)*AND(Y$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((Z$3&gt;=$F12)*AND(Z$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AA$3&gt;=$F12)*AND(AA$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AB$3&gt;=$F12)*AND(AB$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AC$3&gt;=$F12)*AND(AC$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AD$3&gt;=$F12)*AND(AD$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AE$3&gt;=$F12)*AND(AE$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF12" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D12="","",IF((AF$3&gt;=$F12)*AND(AF$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG12" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D12="","",IF((AG$3&gt;=$F12)*AND(AG$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH12" s="18" t="str">
+        <f>IF($D12="","",IF((AH$3&gt;=$F12)*AND(AH$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="21">
-        <v>42940</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" ref="F13" si="17">IF(D13="","",WORKDAY(E13,D13,非稼働日)-1)</f>
-        <v>42940</v>
-      </c>
-      <c r="G13" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="E13" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="21">
+        <v>42935</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="14">IF(D13="","",WORKDAY(F13,D13,非稼働日)-1)</f>
+        <v>42935</v>
       </c>
       <c r="H13" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I13" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f>IF($D13="","",IF((H$3&gt;=$F13)*AND(H$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="18">
+        <f>IF($D13="","",IF((I$3&gt;=$F13)*AND(I$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v>3</v>
       </c>
       <c r="J13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((J$3&gt;=$F13)*AND(J$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((K$3&gt;=$F13)*AND(K$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L13" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>IF($D13="","",IF((L$3&gt;=$F13)*AND(L$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f>IF($D13="","",IF((M$3&gt;=$F13)*AND(M$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="N13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((N$3&gt;=$F13)*AND(N$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((O$3&gt;=$F13)*AND(O$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((P$3&gt;=$F13)*AND(P$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((Q$3&gt;=$F13)*AND(Q$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((R$3&gt;=$F13)*AND(R$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((S$3&gt;=$F13)*AND(S$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((T$3&gt;=$F13)*AND(T$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((U$3&gt;=$F13)*AND(U$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V13" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($D13="","",IF((V$3&gt;=$F13)*AND(V$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W13" s="18" t="str">
-        <f t="shared" ref="W13:AG13" si="18">IF($D13="","",IF((W$3&gt;=$E13)*AND(W$3&lt;=$F13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f>IF($D13="","",IF((W$3&gt;=$F13)*AND(W$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((X$3&gt;=$F13)*AND(X$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((Y$3&gt;=$F13)*AND(Y$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((Z$3&gt;=$F13)*AND(Z$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AA$3&gt;=$F13)*AND(AA$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AB$3&gt;=$F13)*AND(AB$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AC$3&gt;=$F13)*AND(AC$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AD$3&gt;=$F13)*AND(AD$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AE$3&gt;=$F13)*AND(AE$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($D13="","",IF((AF$3&gt;=$F13)*AND(AF$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG13" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D13="","",IF((AG$3&gt;=$F13)*AND(AG$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH13" s="18" t="str">
+        <f>IF($D13="","",IF((AH$3&gt;=$F13)*AND(AH$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" s="17">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>42940</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="13"/>
-        <v>42941</v>
-      </c>
-      <c r="G14" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="21">
+        <v>42936</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" ref="G14" si="15">IF(D14="","",WORKDAY(F14,D14,非稼働日)-1)</f>
+        <v>42936</v>
       </c>
       <c r="H14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((H$3&gt;=$F14)*AND(H$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I14" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J14" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f>IF($D14="","",IF((I$3&gt;=$F14)*AND(I$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="J14" s="18">
+        <f>IF($D14="","",IF((J$3&gt;=$F14)*AND(J$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v>3</v>
       </c>
       <c r="K14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((K$3&gt;=$F14)*AND(K$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L14" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f>IF($D14="","",IF((L$3&gt;=$F14)*AND(L$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f>IF($D14="","",IF((M$3&gt;=$F14)*AND(M$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="N14" s="18" t="str">
+        <f>IF($D14="","",IF((N$3&gt;=$F14)*AND(N$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="O14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((O$3&gt;=$F14)*AND(O$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((P$3&gt;=$F14)*AND(P$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((Q$3&gt;=$F14)*AND(Q$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((R$3&gt;=$F14)*AND(R$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((S$3&gt;=$F14)*AND(S$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((T$3&gt;=$F14)*AND(T$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((U$3&gt;=$F14)*AND(U$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((V$3&gt;=$F14)*AND(V$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((W$3&gt;=$F14)*AND(W$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((X$3&gt;=$F14)*AND(X$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((Y$3&gt;=$F14)*AND(Y$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((Z$3&gt;=$F14)*AND(Z$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((AA$3&gt;=$F14)*AND(AA$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($D14="","",IF((AB$3&gt;=$F14)*AND(AB$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC14" s="18" t="str">
-        <f t="shared" ref="H14:AG19" si="19">IF($D14="","",IF((AC$3&gt;=$E14)*AND(AC$3&lt;=$F14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f>IF($D14="","",IF((AC$3&gt;=$F14)*AND(AC$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD14" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D14="","",IF((AD$3&gt;=$F14)*AND(AD$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE14" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D14="","",IF((AE$3&gt;=$F14)*AND(AE$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF14" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D14="","",IF((AF$3&gt;=$F14)*AND(AF$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG14" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D14="","",IF((AG$3&gt;=$F14)*AND(AG$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH14" s="18" t="str">
+        <f>IF($D14="","",IF((AH$3&gt;=$F14)*AND(AH$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>42941</v>
-      </c>
-      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>42936</v>
+      </c>
+      <c r="G15" s="22">
         <f t="shared" si="13"/>
-        <v>42941</v>
-      </c>
-      <c r="G15" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42939</v>
       </c>
       <c r="H15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((H$3&gt;=$F15)*AND(H$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((I$3&gt;=$F15)*AND(I$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="J15" s="18">
+        <f>IF($D15="","",IF((J$3&gt;=$F15)*AND(J$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v>3</v>
       </c>
+      <c r="K15" s="18">
+        <f>IF($D15="","",IF((K$3&gt;=$F15)*AND(K$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="18">
+        <f>IF($D15="","",IF((L$3&gt;=$F15)*AND(L$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v>3</v>
+      </c>
+      <c r="M15" s="18">
+        <f>IF($D15="","",IF((M$3&gt;=$F15)*AND(M$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="18" t="str">
+        <f>IF($D15="","",IF((N$3&gt;=$F15)*AND(N$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v/>
+      </c>
       <c r="O15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((O$3&gt;=$F15)*AND(O$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((P$3&gt;=$F15)*AND(P$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((Q$3&gt;=$F15)*AND(Q$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((R$3&gt;=$F15)*AND(R$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((S$3&gt;=$F15)*AND(S$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((T$3&gt;=$F15)*AND(T$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((U$3&gt;=$F15)*AND(U$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((V$3&gt;=$F15)*AND(V$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((W$3&gt;=$F15)*AND(W$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((X$3&gt;=$F15)*AND(X$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((Y$3&gt;=$F15)*AND(Y$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((Z$3&gt;=$F15)*AND(Z$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AA$3&gt;=$F15)*AND(AA$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AB$3&gt;=$F15)*AND(AB$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AC$3&gt;=$F15)*AND(AC$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AD$3&gt;=$F15)*AND(AD$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AE$3&gt;=$F15)*AND(AE$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF15" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D15="","",IF((AF$3&gt;=$F15)*AND(AF$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG15" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D15="","",IF((AG$3&gt;=$F15)*AND(AG$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH15" s="18" t="str">
+        <f>IF($D15="","",IF((AH$3&gt;=$F15)*AND(AH$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>42940</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" ref="G16" si="16">IF(D16="","",WORKDAY(F16,D16,非稼働日)-1)</f>
+        <v>42940</v>
+      </c>
+      <c r="H16" s="18" t="str">
+        <f>IF($D16="","",IF((H$3&gt;=$F16)*AND(H$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I16" s="18" t="str">
+        <f>IF($D16="","",IF((I$3&gt;=$F16)*AND(I$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="J16" s="18" t="str">
+        <f>IF($D16="","",IF((J$3&gt;=$F16)*AND(J$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f>IF($D16="","",IF((K$3&gt;=$F16)*AND(K$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f>IF($D16="","",IF((L$3&gt;=$F16)*AND(L$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="M16" s="18" t="str">
+        <f>IF($D16="","",IF((M$3&gt;=$F16)*AND(M$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="N16" s="18">
+        <f>IF($D16="","",IF((N$3&gt;=$F16)*AND(N$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="E16" s="21">
-        <v>42942</v>
-      </c>
-      <c r="F16" s="22">
-        <f t="shared" si="13"/>
-        <v>42946</v>
-      </c>
-      <c r="G16" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="Q16" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="R16" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
+      <c r="O16" s="18" t="str">
+        <f>IF($D16="","",IF((O$3&gt;=$F16)*AND(O$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="P16" s="18" t="str">
+        <f>IF($D16="","",IF((P$3&gt;=$F16)*AND(P$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Q16" s="18" t="str">
+        <f>IF($D16="","",IF((Q$3&gt;=$F16)*AND(Q$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="R16" s="18" t="str">
+        <f>IF($D16="","",IF((R$3&gt;=$F16)*AND(R$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="S16" s="18" t="str">
+        <f>IF($D16="","",IF((S$3&gt;=$F16)*AND(S$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="T16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D16="","",IF((T$3&gt;=$F16)*AND(T$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D16="","",IF((U$3&gt;=$F16)*AND(U$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D16="","",IF((V$3&gt;=$F16)*AND(V$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D16="","",IF((W$3&gt;=$F16)*AND(W$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="X16:AH16" si="17">IF($D16="","",IF((X$3&gt;=$F16)*AND(X$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AC16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AE16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF16" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AG16" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AH16" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="21">
-        <v>42947</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>42940</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" si="13"/>
-        <v>42948</v>
-      </c>
-      <c r="G17" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42941</v>
       </c>
       <c r="H17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((H$3&gt;=$F17)*AND(H$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((I$3&gt;=$F17)*AND(I$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((J$3&gt;=$F17)*AND(J$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((K$3&gt;=$F17)*AND(K$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((L$3&gt;=$F17)*AND(L$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M17" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N17" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O17" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f>IF($D17="","",IF((M$3&gt;=$F17)*AND(M$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="N17" s="18">
+        <f>IF($D17="","",IF((N$3&gt;=$F17)*AND(N$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v>3</v>
+      </c>
+      <c r="O17" s="18">
+        <f>IF($D17="","",IF((O$3&gt;=$F17)*AND(O$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v>3</v>
       </c>
       <c r="P17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((P$3&gt;=$F17)*AND(P$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((Q$3&gt;=$F17)*AND(Q$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((R$3&gt;=$F17)*AND(R$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S17" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="T17" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="U17" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f>IF($D17="","",IF((S$3&gt;=$F17)*AND(S$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="T17" s="18" t="str">
+        <f>IF($D17="","",IF((T$3&gt;=$F17)*AND(T$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="U17" s="18" t="str">
+        <f>IF($D17="","",IF((U$3&gt;=$F17)*AND(U$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="V17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((V$3&gt;=$F17)*AND(V$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="W17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((W$3&gt;=$F17)*AND(W$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="X17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((X$3&gt;=$F17)*AND(X$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((Y$3&gt;=$F17)*AND(Y$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Z17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((Z$3&gt;=$F17)*AND(Z$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((AA$3&gt;=$F17)*AND(AA$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((AB$3&gt;=$F17)*AND(AB$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D17="","",IF((AC$3&gt;=$F17)*AND(AC$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I17:AH24" si="18">IF($D17="","",IF((AD$3&gt;=$F17)*AND(AD$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF17" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG17" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH17" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>42949</v>
-      </c>
-      <c r="F18" s="22">
-        <f t="shared" si="13"/>
-        <v>42949</v>
-      </c>
-      <c r="G18" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>42941</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G19" si="19">IF(D18="","",WORKDAY(F18,D18,非稼働日)-1)</f>
+        <v>42943</v>
       </c>
       <c r="H18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D18="","",IF((H$3&gt;=$F18)*AND(H$3&lt;=$G18),IF($A18="",IF($B18="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N18" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O18" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="P18" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q18" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="P18" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="R18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U18" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V18" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V18" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="W18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE18" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF18" s="18" t="str">
-        <f t="shared" ref="H18:AG23" si="20">IF($D18="","",IF((AF$3&gt;=$E18)*AND(AF$3&lt;=$F18),IF($A18="",IF($B18="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG18" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH18" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>42950</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="13"/>
-        <v>42950</v>
-      </c>
-      <c r="G19" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>42944</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="19"/>
+        <v>42947</v>
       </c>
       <c r="H19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($D19="","",IF((H$3&gt;=$F19)*AND(H$3&lt;=$G19),IF($A19="",IF($B19="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="R19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="T19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="U19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="R19" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="T19" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="U19" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="V19" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="W19" s="18">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="W19" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="X19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE19" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF19" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG19" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH19" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G20" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="C20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>42947</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" ref="G20" si="20">IF(D20="","",WORKDAY(F20,D20,非稼働日)-1)</f>
+        <v>42948</v>
       </c>
       <c r="H20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D20="","",IF((H$3&gt;=$F20)*AND(H$3&lt;=$G20),IF($A20="",IF($B20="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T20" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="U20" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V20" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="W20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF20" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG20" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH20" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="21">
-        <v>42951</v>
-      </c>
-      <c r="F21" s="22">
-        <f t="shared" si="13"/>
-        <v>42954</v>
-      </c>
-      <c r="G21" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>42948</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" ref="G21" si="21">IF(D21="","",WORKDAY(F21,D21,非稼働日)-1)</f>
+        <v>42949</v>
       </c>
       <c r="H21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D21="","",IF((H$3&gt;=$F21)*AND(H$3&lt;=$G21),IF($A21="",IF($B21="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U21" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V21" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W21" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="X21" s="18">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="Y21" s="18">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="Z21" s="18">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AA21" s="18">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="W21" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X21" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Y21" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z21" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA21" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="AB21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF21" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG21" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH21" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" s="21">
-        <v>42951</v>
-      </c>
-      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>42949</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="13"/>
-        <v>42954</v>
-      </c>
-      <c r="G22" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42949</v>
       </c>
       <c r="H22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((H$3&gt;=$F22)*AND(H$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((I$3&gt;=$F22)*AND(I$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((J$3&gt;=$F22)*AND(J$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((K$3&gt;=$F22)*AND(K$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((L$3&gt;=$F22)*AND(L$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="M22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((M$3&gt;=$F22)*AND(M$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="N22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((N$3&gt;=$F22)*AND(N$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="O22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((O$3&gt;=$F22)*AND(O$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="P22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((P$3&gt;=$F22)*AND(P$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Q22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((Q$3&gt;=$F22)*AND(Q$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="R22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((R$3&gt;=$F22)*AND(R$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="S22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((S$3&gt;=$F22)*AND(S$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="T22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((T$3&gt;=$F22)*AND(T$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="U22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((U$3&gt;=$F22)*AND(U$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="V22" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W22" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="X22" s="18">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((V$3&gt;=$F22)*AND(V$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="W22" s="18">
+        <f>IF($D22="","",IF((W$3&gt;=$F22)*AND(W$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v>3</v>
       </c>
-      <c r="Y22" s="18">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="Z22" s="18">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AA22" s="18">
-        <f t="shared" si="20"/>
-        <v>3</v>
+      <c r="X22" s="18" t="str">
+        <f>IF($D22="","",IF((X$3&gt;=$F22)*AND(X$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Y22" s="18" t="str">
+        <f>IF($D22="","",IF((Y$3&gt;=$F22)*AND(Y$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="18" t="str">
+        <f>IF($D22="","",IF((Z$3&gt;=$F22)*AND(Z$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AA22" s="18" t="str">
+        <f>IF($D22="","",IF((AA$3&gt;=$F22)*AND(AA$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
       </c>
       <c r="AB22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((AB$3&gt;=$F22)*AND(AB$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((AC$3&gt;=$F22)*AND(AC$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AD22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((AD$3&gt;=$F22)*AND(AD$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((AE$3&gt;=$F22)*AND(AE$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AF22" s="18" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($D22="","",IF((AF$3&gt;=$F22)*AND(AF$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG22" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF($D22="","",IF((AG$3&gt;=$F22)*AND(AG$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH22" s="18" t="str">
+        <f>IF($D22="","",IF((AH$3&gt;=$F22)*AND(AH$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="21">
-        <v>42954</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>42949</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="13"/>
+        <v>42949</v>
+      </c>
+      <c r="H23" s="18" t="str">
+        <f>IF($D23="","",IF((H$3&gt;=$F23)*AND(H$3&lt;=$G23),IF($A23="",IF($B23="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="R23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="S23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="W23" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Y23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AB23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF23" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG23" s="18" t="str">
+        <f t="shared" ref="I23:AH28" si="22">IF($D23="","",IF((AG$3&gt;=$F23)*AND(AG$3&lt;=$G23),IF($A23="",IF($B23="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AH23" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="17">
+        <v>2</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>42950</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="13"/>
+        <v>42953</v>
+      </c>
+      <c r="H24" s="18" t="str">
+        <f>IF($D24="","",IF((H$3&gt;=$F24)*AND(H$3&lt;=$G24),IF($A24="",IF($B24="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="R24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="S24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="W24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="X24" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Y24" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AA24" s="18">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AB24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF24" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG24" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AH24" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H25" s="18" t="str">
+        <f>IF($D25="","",IF((H$3&gt;=$F25)*AND(H$3&lt;=$G25),IF($A25="",IF($B25="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="S25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Y25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AA25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AB25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AC25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AD25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AE25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AF25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AG25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AH25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>42951</v>
+      </c>
+      <c r="G26" s="22">
         <f t="shared" si="13"/>
         <v>42954</v>
       </c>
-      <c r="G23" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="S23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="U23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="X23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Z23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AA23" s="18">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AB23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AC23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AD23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AE23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AF23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG23" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
+      <c r="H26" s="18" t="str">
+        <f>IF($D26="","",IF((H$3&gt;=$F26)*AND(H$3&lt;=$G26),IF($A26="",IF($B26="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="S26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Y26" s="18">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="E24" s="21">
-        <v>42955</v>
-      </c>
-      <c r="F24" s="22">
-        <f>IF(D24="","",WORKDAY(E24,D24,非稼働日))</f>
-        <v>42957</v>
-      </c>
-      <c r="G24" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H24" s="18" t="str">
-        <f t="shared" ref="H24:AG26" si="21">IF($D24="","",IF((H$3&gt;=$E24)*AND(H$3&lt;=$F24),IF($A24="",IF($B24="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="I24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="R24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="S24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="T24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="V24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="X24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Z24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AA24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AB24" s="18">
-        <f t="shared" si="21"/>
+      <c r="Z26" s="18">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="21"/>
+      <c r="AA26" s="18">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AD24" s="18">
-        <f t="shared" si="21"/>
+      <c r="AB26" s="18">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AE24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AF24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AG24" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>42957</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="13"/>
-        <v>42960</v>
-      </c>
-      <c r="G25" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="R25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="S25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="T25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="V25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="X25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Z25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AA25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AB25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AC25" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AD25" s="18">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AE25" s="18">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AF25" s="18">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AG25" s="18">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G26" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="R26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="S26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="T26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="V26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="X26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Z26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AA26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AB26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
       <c r="AC26" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD26" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AE26" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AF26" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AG26" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AH26" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22" t="str">
+      <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17">
+        <v>2</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>42951</v>
+      </c>
+      <c r="G27" s="22">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G27" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42954</v>
       </c>
       <c r="H27" s="18" t="str">
-        <f t="shared" ref="H27:AG30" si="22">IF($D27="","",IF((H$3&gt;=$E27)*AND(H$3&lt;=$F27),IF($A27="",IF($B27="",3,2),1),""))</f>
+        <f>IF($D27="","",IF((H$3&gt;=$F27)*AND(H$3&lt;=$G27),IF($A27="",IF($B27="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I27" s="18" t="str">
@@ -4083,21 +4473,21 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Y27" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Z27" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AA27" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AB27" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="Y27" s="18">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AA27" s="18">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AB27" s="18">
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="AC27" s="18" t="str">
         <f t="shared" si="22"/>
@@ -4119,23 +4509,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH27" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22" t="str">
+      <c r="C28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>42954</v>
+      </c>
+      <c r="G28" s="22">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G28" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42954</v>
       </c>
       <c r="H28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f>IF($D28="","",IF((H$3&gt;=$F28)*AND(H$3&lt;=$G28),IF($A28="",IF($B28="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I28" s="18" t="str">
@@ -4214,9 +4613,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AB28" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="AB28" s="18">
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="AC28" s="18" t="str">
         <f t="shared" si="22"/>
@@ -4238,261 +4637,196 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH28" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G29" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="S29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="V29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Y29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Z29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AA29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AB29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AC29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AE29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AF29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AG29" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="35"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G30" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+      <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21">
+        <v>42955</v>
+      </c>
+      <c r="G30" s="22">
+        <f>IF(D30="","",WORKDAY(F30,D30,非稼働日))</f>
+        <v>42957</v>
       </c>
       <c r="H30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f>IF($D30="","",IF((H$3&gt;=$F30)*AND(H$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I30:AH32" si="23">IF($D30="","",IF((I$3&gt;=$F30)*AND(I$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="X30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Y30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Z30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB30" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AC30" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AD30" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AE30" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AC30" s="18">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AD30" s="18">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AE30" s="18">
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="AF30" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AG30" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AH30" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22" t="str">
+      <c r="C31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>42957</v>
+      </c>
+      <c r="G31" s="22">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G31" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <v>42960</v>
       </c>
       <c r="H31" s="18" t="str">
-        <f t="shared" ref="H31:AG32" si="23">IF($D31="","",IF((H$3&gt;=$E31)*AND(H$3&lt;=$F31),IF($A31="",IF($B31="",3,2),1),""))</f>
+        <f>IF($D31="","",IF((H$3&gt;=$F31)*AND(H$3&lt;=$G31),IF($A31="",IF($B31="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I31" s="18" t="str">
@@ -4583,35 +4917,36 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AE31" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AF31" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AG31" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE31" s="18">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AF31" s="18">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AG31" s="18">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AH31" s="18">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22" t="str">
+      <c r="E32" s="17"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G32" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="H32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f>IF($D32="","",IF((H$3&gt;=$F32)*AND(H$3&lt;=$G32),IF($A32="",IF($B32="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I32" s="18" t="str">
@@ -4714,19 +5049,743 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="AH32" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H33" s="18" t="str">
+        <f>IF($D33="","",IF((H$3&gt;=$F33)*AND(H$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I33" s="18" t="str">
+        <f t="shared" ref="I33:AH36" si="24">IF($D33="","",IF((I$3&gt;=$F33)*AND(I$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="V33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="W33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Y33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AA33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AB33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AE33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AF33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AG33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AH33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H34" s="18" t="str">
+        <f>IF($D34="","",IF((H$3&gt;=$F34)*AND(H$3&lt;=$G34),IF($A34="",IF($B34="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="V34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="W34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Y34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AA34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AB34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AE34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AF34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AG34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AH34" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H35" s="18" t="str">
+        <f>IF($D35="","",IF((H$3&gt;=$F35)*AND(H$3&lt;=$G35),IF($A35="",IF($B35="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="V35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="W35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Y35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AA35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AB35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AE35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AF35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AG35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AH35" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H36" s="18" t="str">
+        <f>IF($D36="","",IF((H$3&gt;=$F36)*AND(H$3&lt;=$G36),IF($A36="",IF($B36="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="V36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="W36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Y36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AA36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AB36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AD36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AE36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AF36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AG36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AH36" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H37" s="18" t="str">
+        <f>IF($D37="","",IF((H$3&gt;=$F37)*AND(H$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I37" s="18" t="str">
+        <f t="shared" ref="I37:AH38" si="25">IF($D37="","",IF((I$3&gt;=$F37)*AND(I$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="J37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="R37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="S37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="W37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="X37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Y37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AA37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AB37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AC37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AD37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AE37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AG37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AH37" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H38" s="18" t="str">
+        <f>IF($D38="","",IF((H$3&gt;=$F38)*AND(H$3&lt;=$G38),IF($A38="",IF($B38="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="I38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="R38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="S38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="W38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="X38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Y38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AA38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AB38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AC38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AD38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AE38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AG38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AH38" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4735,37 +5794,107 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="G4:AG4">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="H4:AH4">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:AG32">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>MATCH(G$3,非稼働日,0)&gt;0</formula>
+  <conditionalFormatting sqref="H5:AH12 H15:AH19 H23:AH38">
+    <cfRule type="expression" dxfId="32" priority="21" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:AG2">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="13">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="I2:AH2">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="33">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:AH13">
+    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:AH22">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:AH14">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:AH21">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:AH20">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F24" formula="1"/>
+    <ignoredError sqref="G30" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4812,7 +5941,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4">
         <v>42939</v>
       </c>
@@ -4823,7 +5952,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="4">
         <v>42945</v>
       </c>
@@ -4834,7 +5963,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="4">
         <v>42946</v>
       </c>
@@ -4845,7 +5974,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4">
         <v>42952</v>
       </c>
@@ -4856,7 +5985,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="4">
         <v>42953</v>
       </c>
@@ -4867,7 +5996,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4">
         <v>42958</v>
       </c>
@@ -4878,7 +6007,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="4">
         <v>42959</v>
       </c>
@@ -4889,7 +6018,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="4">
         <v>42960</v>
       </c>
@@ -4900,7 +6029,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="4"/>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -4909,7 +6038,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="4"/>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -4918,7 +6047,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -4927,7 +6056,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -4936,7 +6065,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -4945,7 +6074,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -4954,7 +6083,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -4963,7 +6092,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -4972,7 +6101,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -4981,7 +6110,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -4990,7 +6119,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
@@ -4999,7 +6128,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7">
         <f t="shared" si="0"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="6800" yWindow="2960" windowWidth="16000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プレイヤー追加/削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>戦歴保存</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -176,6 +172,10 @@
   </si>
   <si>
     <t>リストのフローティング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤー追加/削除</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -499,6 +499,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -517,102 +527,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -871,126 +791,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1293,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1309,20 +1109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="23"/>
-      <c r="E1" s="33"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="9">
         <f>H3</f>
         <v>42934</v>
@@ -1543,16 +1343,16 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>2</v>
@@ -1678,7 +1478,7 @@
       <c r="D5" s="17">
         <v>18</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="27">
         <v>0.1</v>
       </c>
       <c r="F5" s="21">
@@ -1689,111 +1489,111 @@
         <v>42960</v>
       </c>
       <c r="H5" s="18">
-        <f>IF($D5="","",IF((H$3&gt;=$F5)*AND(H$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" ref="H5:Q9" si="14">IF($D5="","",IF((H$3&gt;=$F5)*AND(H$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
       <c r="I5" s="18">
-        <f>IF($D5="","",IF((I$3&gt;=$F5)*AND(I$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J5" s="18">
-        <f>IF($D5="","",IF((J$3&gt;=$F5)*AND(J$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K5" s="18">
-        <f>IF($D5="","",IF((K$3&gt;=$F5)*AND(K$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L5" s="18">
-        <f>IF($D5="","",IF((L$3&gt;=$F5)*AND(L$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M5" s="18">
-        <f>IF($D5="","",IF((M$3&gt;=$F5)*AND(M$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N5" s="18">
-        <f>IF($D5="","",IF((N$3&gt;=$F5)*AND(N$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O5" s="18">
-        <f>IF($D5="","",IF((O$3&gt;=$F5)*AND(O$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="P5" s="18">
-        <f>IF($D5="","",IF((P$3&gt;=$F5)*AND(P$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q5" s="18">
-        <f>IF($D5="","",IF((Q$3&gt;=$F5)*AND(Q$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R5" s="18">
-        <f>IF($D5="","",IF((R$3&gt;=$F5)*AND(R$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" ref="R5:AA9" si="15">IF($D5="","",IF((R$3&gt;=$F5)*AND(R$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
       <c r="S5" s="18">
-        <f>IF($D5="","",IF((S$3&gt;=$F5)*AND(S$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T5" s="18">
-        <f>IF($D5="","",IF((T$3&gt;=$F5)*AND(T$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U5" s="18">
-        <f>IF($D5="","",IF((U$3&gt;=$F5)*AND(U$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V5" s="18">
-        <f>IF($D5="","",IF((V$3&gt;=$F5)*AND(V$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W5" s="18">
-        <f>IF($D5="","",IF((W$3&gt;=$F5)*AND(W$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="X5" s="18">
-        <f>IF($D5="","",IF((X$3&gt;=$F5)*AND(X$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y5" s="18">
-        <f>IF($D5="","",IF((Y$3&gt;=$F5)*AND(Y$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Z5" s="18">
-        <f>IF($D5="","",IF((Z$3&gt;=$F5)*AND(Z$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AA5" s="18">
-        <f>IF($D5="","",IF((AA$3&gt;=$F5)*AND(AA$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AB5" s="18">
-        <f>IF($D5="","",IF((AB$3&gt;=$F5)*AND(AB$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" ref="AB5:AH9" si="16">IF($D5="","",IF((AB$3&gt;=$F5)*AND(AB$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
         <v>1</v>
       </c>
       <c r="AC5" s="18">
-        <f>IF($D5="","",IF((AC$3&gt;=$F5)*AND(AC$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AD5" s="18">
-        <f>IF($D5="","",IF((AD$3&gt;=$F5)*AND(AD$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AE5" s="18">
-        <f>IF($D5="","",IF((AE$3&gt;=$F5)*AND(AE$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AF5" s="18">
-        <f>IF($D5="","",IF((AF$3&gt;=$F5)*AND(AF$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AG5" s="18">
-        <f>IF($D5="","",IF((AG$3&gt;=$F5)*AND(AG$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AH5" s="18">
-        <f>IF($D5="","",IF((AH$3&gt;=$F5)*AND(AH$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -1806,7 +1606,7 @@
       <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="27">
         <v>1</v>
       </c>
       <c r="F6" s="21">
@@ -1817,111 +1617,111 @@
         <v>42935</v>
       </c>
       <c r="H6" s="18">
-        <f>IF($D6="","",IF((H$3&gt;=$F6)*AND(H$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I6" s="18">
-        <f>IF($D6="","",IF((I$3&gt;=$F6)*AND(I$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J6" s="18" t="str">
-        <f>IF($D6="","",IF((J$3&gt;=$F6)*AND(J$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K6" s="18" t="str">
-        <f>IF($D6="","",IF((K$3&gt;=$F6)*AND(K$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L6" s="18" t="str">
-        <f>IF($D6="","",IF((L$3&gt;=$F6)*AND(L$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M6" s="18" t="str">
-        <f>IF($D6="","",IF((M$3&gt;=$F6)*AND(M$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N6" s="18" t="str">
-        <f>IF($D6="","",IF((N$3&gt;=$F6)*AND(N$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O6" s="18" t="str">
-        <f>IF($D6="","",IF((O$3&gt;=$F6)*AND(O$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P6" s="18" t="str">
-        <f>IF($D6="","",IF((P$3&gt;=$F6)*AND(P$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q6" s="18" t="str">
-        <f>IF($D6="","",IF((Q$3&gt;=$F6)*AND(Q$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R6" s="18" t="str">
-        <f>IF($D6="","",IF((R$3&gt;=$F6)*AND(R$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S6" s="18" t="str">
-        <f>IF($D6="","",IF((S$3&gt;=$F6)*AND(S$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T6" s="18" t="str">
-        <f>IF($D6="","",IF((T$3&gt;=$F6)*AND(T$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U6" s="18" t="str">
-        <f>IF($D6="","",IF((U$3&gt;=$F6)*AND(U$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V6" s="18" t="str">
-        <f>IF($D6="","",IF((V$3&gt;=$F6)*AND(V$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W6" s="18" t="str">
-        <f>IF($D6="","",IF((W$3&gt;=$F6)*AND(W$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X6" s="18" t="str">
-        <f>IF($D6="","",IF((X$3&gt;=$F6)*AND(X$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Y6" s="18" t="str">
-        <f>IF($D6="","",IF((Y$3&gt;=$F6)*AND(Y$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z6" s="18" t="str">
-        <f>IF($D6="","",IF((Z$3&gt;=$F6)*AND(Z$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA6" s="18" t="str">
-        <f>IF($D6="","",IF((AA$3&gt;=$F6)*AND(AA$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB6" s="18" t="str">
-        <f>IF($D6="","",IF((AB$3&gt;=$F6)*AND(AB$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AC6" s="18" t="str">
-        <f>IF($D6="","",IF((AC$3&gt;=$F6)*AND(AC$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD6" s="18" t="str">
-        <f>IF($D6="","",IF((AD$3&gt;=$F6)*AND(AD$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE6" s="18" t="str">
-        <f>IF($D6="","",IF((AE$3&gt;=$F6)*AND(AE$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF6" s="18" t="str">
-        <f>IF($D6="","",IF((AF$3&gt;=$F6)*AND(AF$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AG6" s="18" t="str">
-        <f>IF($D6="","",IF((AG$3&gt;=$F6)*AND(AG$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH6" s="18" t="str">
-        <f>IF($D6="","",IF((AH$3&gt;=$F6)*AND(AH$3&lt;=$G6),IF($A6="",IF($B6="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -1934,7 +1734,7 @@
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="27">
         <v>1</v>
       </c>
       <c r="F7" s="21">
@@ -1945,111 +1745,111 @@
         <v>42934</v>
       </c>
       <c r="H7" s="18">
-        <f>IF($D7="","",IF((H$3&gt;=$F7)*AND(H$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I7" s="18" t="str">
-        <f>IF($D7="","",IF((I$3&gt;=$F7)*AND(I$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J7" s="18" t="str">
-        <f>IF($D7="","",IF((J$3&gt;=$F7)*AND(J$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
-        <f>IF($D7="","",IF((K$3&gt;=$F7)*AND(K$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L7" s="18" t="str">
-        <f>IF($D7="","",IF((L$3&gt;=$F7)*AND(L$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M7" s="18" t="str">
-        <f>IF($D7="","",IF((M$3&gt;=$F7)*AND(M$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N7" s="18" t="str">
-        <f>IF($D7="","",IF((N$3&gt;=$F7)*AND(N$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O7" s="18" t="str">
-        <f>IF($D7="","",IF((O$3&gt;=$F7)*AND(O$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P7" s="18" t="str">
-        <f>IF($D7="","",IF((P$3&gt;=$F7)*AND(P$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q7" s="18" t="str">
-        <f>IF($D7="","",IF((Q$3&gt;=$F7)*AND(Q$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R7" s="18" t="str">
-        <f>IF($D7="","",IF((R$3&gt;=$F7)*AND(R$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S7" s="18" t="str">
-        <f>IF($D7="","",IF((S$3&gt;=$F7)*AND(S$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T7" s="18" t="str">
-        <f>IF($D7="","",IF((T$3&gt;=$F7)*AND(T$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U7" s="18" t="str">
-        <f>IF($D7="","",IF((U$3&gt;=$F7)*AND(U$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V7" s="18" t="str">
-        <f>IF($D7="","",IF((V$3&gt;=$F7)*AND(V$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W7" s="18" t="str">
-        <f>IF($D7="","",IF((W$3&gt;=$F7)*AND(W$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X7" s="18" t="str">
-        <f>IF($D7="","",IF((X$3&gt;=$F7)*AND(X$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Y7" s="18" t="str">
-        <f>IF($D7="","",IF((Y$3&gt;=$F7)*AND(Y$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z7" s="18" t="str">
-        <f>IF($D7="","",IF((Z$3&gt;=$F7)*AND(Z$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA7" s="18" t="str">
-        <f>IF($D7="","",IF((AA$3&gt;=$F7)*AND(AA$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB7" s="18" t="str">
-        <f>IF($D7="","",IF((AB$3&gt;=$F7)*AND(AB$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AC7" s="18" t="str">
-        <f>IF($D7="","",IF((AC$3&gt;=$F7)*AND(AC$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD7" s="18" t="str">
-        <f>IF($D7="","",IF((AD$3&gt;=$F7)*AND(AD$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE7" s="18" t="str">
-        <f>IF($D7="","",IF((AE$3&gt;=$F7)*AND(AE$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF7" s="18" t="str">
-        <f>IF($D7="","",IF((AF$3&gt;=$F7)*AND(AF$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AG7" s="18" t="str">
-        <f>IF($D7="","",IF((AG$3&gt;=$F7)*AND(AG$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH7" s="18" t="str">
-        <f>IF($D7="","",IF((AH$3&gt;=$F7)*AND(AH$3&lt;=$G7),IF($A7="",IF($B7="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -2062,7 +1862,7 @@
       <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
       <c r="F8" s="21">
@@ -2073,111 +1873,111 @@
         <v>42935</v>
       </c>
       <c r="H8" s="18">
-        <f>IF($D8="","",IF((H$3&gt;=$F8)*AND(H$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I8" s="18">
-        <f>IF($D8="","",IF((I$3&gt;=$F8)*AND(I$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="J8" s="18" t="str">
-        <f>IF($D8="","",IF((J$3&gt;=$F8)*AND(J$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K8" s="18" t="str">
-        <f>IF($D8="","",IF((K$3&gt;=$F8)*AND(K$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L8" s="18" t="str">
-        <f>IF($D8="","",IF((L$3&gt;=$F8)*AND(L$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M8" s="18" t="str">
-        <f>IF($D8="","",IF((M$3&gt;=$F8)*AND(M$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N8" s="18" t="str">
-        <f>IF($D8="","",IF((N$3&gt;=$F8)*AND(N$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O8" s="18" t="str">
-        <f>IF($D8="","",IF((O$3&gt;=$F8)*AND(O$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P8" s="18" t="str">
-        <f>IF($D8="","",IF((P$3&gt;=$F8)*AND(P$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q8" s="18" t="str">
-        <f>IF($D8="","",IF((Q$3&gt;=$F8)*AND(Q$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R8" s="18" t="str">
-        <f>IF($D8="","",IF((R$3&gt;=$F8)*AND(R$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S8" s="18" t="str">
-        <f>IF($D8="","",IF((S$3&gt;=$F8)*AND(S$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T8" s="18" t="str">
-        <f>IF($D8="","",IF((T$3&gt;=$F8)*AND(T$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U8" s="18" t="str">
-        <f>IF($D8="","",IF((U$3&gt;=$F8)*AND(U$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V8" s="18" t="str">
-        <f>IF($D8="","",IF((V$3&gt;=$F8)*AND(V$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W8" s="18" t="str">
-        <f>IF($D8="","",IF((W$3&gt;=$F8)*AND(W$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X8" s="18" t="str">
-        <f>IF($D8="","",IF((X$3&gt;=$F8)*AND(X$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Y8" s="18" t="str">
-        <f>IF($D8="","",IF((Y$3&gt;=$F8)*AND(Y$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z8" s="18" t="str">
-        <f>IF($D8="","",IF((Z$3&gt;=$F8)*AND(Z$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA8" s="18" t="str">
-        <f>IF($D8="","",IF((AA$3&gt;=$F8)*AND(AA$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB8" s="18" t="str">
-        <f>IF($D8="","",IF((AB$3&gt;=$F8)*AND(AB$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AC8" s="18" t="str">
-        <f>IF($D8="","",IF((AC$3&gt;=$F8)*AND(AC$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD8" s="18" t="str">
-        <f>IF($D8="","",IF((AD$3&gt;=$F8)*AND(AD$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE8" s="18" t="str">
-        <f>IF($D8="","",IF((AE$3&gt;=$F8)*AND(AE$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF8" s="18" t="str">
-        <f>IF($D8="","",IF((AF$3&gt;=$F8)*AND(AF$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AG8" s="18" t="str">
-        <f>IF($D8="","",IF((AG$3&gt;=$F8)*AND(AG$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH8" s="18" t="str">
-        <f>IF($D8="","",IF((AH$3&gt;=$F8)*AND(AH$3&lt;=$G8),IF($A8="",IF($B8="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -2190,7 +1990,7 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="27">
         <v>1</v>
       </c>
       <c r="F9" s="21">
@@ -2201,111 +2001,111 @@
         <v>42935</v>
       </c>
       <c r="H9" s="18" t="str">
-        <f>IF($D9="","",IF((H$3&gt;=$F9)*AND(H$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I9" s="18">
-        <f>IF($D9="","",IF((I$3&gt;=$F9)*AND(I$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="J9" s="18" t="str">
-        <f>IF($D9="","",IF((J$3&gt;=$F9)*AND(J$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K9" s="18" t="str">
-        <f>IF($D9="","",IF((K$3&gt;=$F9)*AND(K$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L9" s="18" t="str">
-        <f>IF($D9="","",IF((L$3&gt;=$F9)*AND(L$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M9" s="18" t="str">
-        <f>IF($D9="","",IF((M$3&gt;=$F9)*AND(M$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N9" s="18" t="str">
-        <f>IF($D9="","",IF((N$3&gt;=$F9)*AND(N$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O9" s="18" t="str">
-        <f>IF($D9="","",IF((O$3&gt;=$F9)*AND(O$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P9" s="18" t="str">
-        <f>IF($D9="","",IF((P$3&gt;=$F9)*AND(P$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q9" s="18" t="str">
-        <f>IF($D9="","",IF((Q$3&gt;=$F9)*AND(Q$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R9" s="18" t="str">
-        <f>IF($D9="","",IF((R$3&gt;=$F9)*AND(R$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S9" s="18" t="str">
-        <f>IF($D9="","",IF((S$3&gt;=$F9)*AND(S$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T9" s="18" t="str">
-        <f>IF($D9="","",IF((T$3&gt;=$F9)*AND(T$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U9" s="18" t="str">
-        <f>IF($D9="","",IF((U$3&gt;=$F9)*AND(U$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V9" s="18" t="str">
-        <f>IF($D9="","",IF((V$3&gt;=$F9)*AND(V$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W9" s="18" t="str">
-        <f>IF($D9="","",IF((W$3&gt;=$F9)*AND(W$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X9" s="18" t="str">
-        <f>IF($D9="","",IF((X$3&gt;=$F9)*AND(X$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Y9" s="18" t="str">
-        <f>IF($D9="","",IF((Y$3&gt;=$F9)*AND(Y$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z9" s="18" t="str">
-        <f>IF($D9="","",IF((Z$3&gt;=$F9)*AND(Z$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA9" s="18" t="str">
-        <f>IF($D9="","",IF((AA$3&gt;=$F9)*AND(AA$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB9" s="18" t="str">
-        <f>IF($D9="","",IF((AB$3&gt;=$F9)*AND(AB$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AC9" s="18" t="str">
-        <f>IF($D9="","",IF((AC$3&gt;=$F9)*AND(AC$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD9" s="18" t="str">
-        <f>IF($D9="","",IF((AD$3&gt;=$F9)*AND(AD$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE9" s="18" t="str">
-        <f>IF($D9="","",IF((AE$3&gt;=$F9)*AND(AE$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF9" s="18" t="str">
-        <f>IF($D9="","",IF((AF$3&gt;=$F9)*AND(AF$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AG9" s="18" t="str">
-        <f>IF($D9="","",IF((AG$3&gt;=$F9)*AND(AG$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH9" s="18" t="str">
-        <f>IF($D9="","",IF((AH$3&gt;=$F9)*AND(AH$3&lt;=$G9),IF($A9="",IF($B9="",3,2),1),""))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -2314,7 +2114,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18"/>
@@ -2354,9 +2154,9 @@
       <c r="D11" s="17">
         <v>13</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="28">
         <f>SUM(E12:E24)/COUNT(E12:E24)</f>
-        <v>0.13461538461538461</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="F11" s="21">
         <v>42935</v>
@@ -2366,111 +2166,111 @@
         <v>42953</v>
       </c>
       <c r="H11" s="18" t="str">
-        <f>IF($D11="","",IF((H$3&gt;=$F11)*AND(H$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" ref="H11:Q15" si="17">IF($D11="","",IF((H$3&gt;=$F11)*AND(H$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I11" s="18">
-        <f>IF($D11="","",IF((I$3&gt;=$F11)*AND(I$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="J11" s="18">
-        <f>IF($D11="","",IF((J$3&gt;=$F11)*AND(J$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f>IF($D11="","",IF((K$3&gt;=$F11)*AND(K$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L11" s="18">
-        <f>IF($D11="","",IF((L$3&gt;=$F11)*AND(L$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="M11" s="18">
-        <f>IF($D11="","",IF((M$3&gt;=$F11)*AND(M$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N11" s="18">
-        <f>IF($D11="","",IF((N$3&gt;=$F11)*AND(N$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="O11" s="18">
-        <f>IF($D11="","",IF((O$3&gt;=$F11)*AND(O$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P11" s="18">
-        <f>IF($D11="","",IF((P$3&gt;=$F11)*AND(P$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Q11" s="18">
-        <f>IF($D11="","",IF((Q$3&gt;=$F11)*AND(Q$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R11" s="18">
-        <f>IF($D11="","",IF((R$3&gt;=$F11)*AND(R$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" ref="R11:AA15" si="18">IF($D11="","",IF((R$3&gt;=$F11)*AND(R$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v>2</v>
       </c>
       <c r="S11" s="18">
-        <f>IF($D11="","",IF((S$3&gt;=$F11)*AND(S$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T11" s="18">
-        <f>IF($D11="","",IF((T$3&gt;=$F11)*AND(T$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="U11" s="18">
-        <f>IF($D11="","",IF((U$3&gt;=$F11)*AND(U$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V11" s="18">
-        <f>IF($D11="","",IF((V$3&gt;=$F11)*AND(V$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="W11" s="18">
-        <f>IF($D11="","",IF((W$3&gt;=$F11)*AND(W$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="X11" s="18">
-        <f>IF($D11="","",IF((X$3&gt;=$F11)*AND(X$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Y11" s="18">
-        <f>IF($D11="","",IF((Y$3&gt;=$F11)*AND(Y$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Z11" s="18">
-        <f>IF($D11="","",IF((Z$3&gt;=$F11)*AND(Z$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AA11" s="18">
-        <f>IF($D11="","",IF((AA$3&gt;=$F11)*AND(AA$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f>IF($D11="","",IF((AB$3&gt;=$F11)*AND(AB$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" ref="AB11:AH15" si="19">IF($D11="","",IF((AB$3&gt;=$F11)*AND(AB$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AC11" s="18" t="str">
-        <f>IF($D11="","",IF((AC$3&gt;=$F11)*AND(AC$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD11" s="18" t="str">
-        <f>IF($D11="","",IF((AD$3&gt;=$F11)*AND(AD$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE11" s="18" t="str">
-        <f>IF($D11="","",IF((AE$3&gt;=$F11)*AND(AE$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF11" s="18" t="str">
-        <f>IF($D11="","",IF((AF$3&gt;=$F11)*AND(AF$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG11" s="18" t="str">
-        <f>IF($D11="","",IF((AG$3&gt;=$F11)*AND(AG$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH11" s="18" t="str">
-        <f>IF($D11="","",IF((AH$3&gt;=$F11)*AND(AH$3&lt;=$G11),IF($A11="",IF($B11="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2483,7 +2283,7 @@
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="27">
         <v>1</v>
       </c>
       <c r="F12" s="21">
@@ -2494,111 +2294,111 @@
         <v>42935</v>
       </c>
       <c r="H12" s="18" t="str">
-        <f>IF($D12="","",IF((H$3&gt;=$F12)*AND(H$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I12" s="18">
-        <f>IF($D12="","",IF((I$3&gt;=$F12)*AND(I$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J12" s="18" t="str">
-        <f>IF($D12="","",IF((J$3&gt;=$F12)*AND(J$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K12" s="18" t="str">
-        <f>IF($D12="","",IF((K$3&gt;=$F12)*AND(K$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L12" s="18" t="str">
-        <f>IF($D12="","",IF((L$3&gt;=$F12)*AND(L$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M12" s="18" t="str">
-        <f>IF($D12="","",IF((M$3&gt;=$F12)*AND(M$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N12" s="18" t="str">
-        <f>IF($D12="","",IF((N$3&gt;=$F12)*AND(N$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O12" s="18" t="str">
-        <f>IF($D12="","",IF((O$3&gt;=$F12)*AND(O$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P12" s="18" t="str">
-        <f>IF($D12="","",IF((P$3&gt;=$F12)*AND(P$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q12" s="18" t="str">
-        <f>IF($D12="","",IF((Q$3&gt;=$F12)*AND(Q$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R12" s="18" t="str">
-        <f>IF($D12="","",IF((R$3&gt;=$F12)*AND(R$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S12" s="18" t="str">
-        <f>IF($D12="","",IF((S$3&gt;=$F12)*AND(S$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T12" s="18" t="str">
-        <f>IF($D12="","",IF((T$3&gt;=$F12)*AND(T$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U12" s="18" t="str">
-        <f>IF($D12="","",IF((U$3&gt;=$F12)*AND(U$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V12" s="18" t="str">
-        <f>IF($D12="","",IF((V$3&gt;=$F12)*AND(V$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W12" s="18" t="str">
-        <f>IF($D12="","",IF((W$3&gt;=$F12)*AND(W$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X12" s="18" t="str">
-        <f>IF($D12="","",IF((X$3&gt;=$F12)*AND(X$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y12" s="18" t="str">
-        <f>IF($D12="","",IF((Y$3&gt;=$F12)*AND(Y$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z12" s="18" t="str">
-        <f>IF($D12="","",IF((Z$3&gt;=$F12)*AND(Z$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA12" s="18" t="str">
-        <f>IF($D12="","",IF((AA$3&gt;=$F12)*AND(AA$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB12" s="18" t="str">
-        <f>IF($D12="","",IF((AB$3&gt;=$F12)*AND(AB$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC12" s="18" t="str">
-        <f>IF($D12="","",IF((AC$3&gt;=$F12)*AND(AC$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD12" s="18" t="str">
-        <f>IF($D12="","",IF((AD$3&gt;=$F12)*AND(AD$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE12" s="18" t="str">
-        <f>IF($D12="","",IF((AE$3&gt;=$F12)*AND(AE$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF12" s="18" t="str">
-        <f>IF($D12="","",IF((AF$3&gt;=$F12)*AND(AF$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG12" s="18" t="str">
-        <f>IF($D12="","",IF((AG$3&gt;=$F12)*AND(AG$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH12" s="18" t="str">
-        <f>IF($D12="","",IF((AH$3&gt;=$F12)*AND(AH$3&lt;=$G12),IF($A12="",IF($B12="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2606,127 +2406,127 @@
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="35">
-        <v>0.5</v>
+      <c r="E13" s="27">
+        <v>1</v>
       </c>
       <c r="F13" s="21">
         <v>42935</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" ref="G13" si="14">IF(D13="","",WORKDAY(F13,D13,非稼働日)-1)</f>
+        <f t="shared" ref="G13" si="20">IF(D13="","",WORKDAY(F13,D13,非稼働日)-1)</f>
         <v>42935</v>
       </c>
       <c r="H13" s="18" t="str">
-        <f>IF($D13="","",IF((H$3&gt;=$F13)*AND(H$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I13" s="18">
-        <f>IF($D13="","",IF((I$3&gt;=$F13)*AND(I$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J13" s="18" t="str">
-        <f>IF($D13="","",IF((J$3&gt;=$F13)*AND(J$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
-        <f>IF($D13="","",IF((K$3&gt;=$F13)*AND(K$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L13" s="18" t="str">
-        <f>IF($D13="","",IF((L$3&gt;=$F13)*AND(L$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M13" s="18" t="str">
-        <f>IF($D13="","",IF((M$3&gt;=$F13)*AND(M$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N13" s="18" t="str">
-        <f>IF($D13="","",IF((N$3&gt;=$F13)*AND(N$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O13" s="18" t="str">
-        <f>IF($D13="","",IF((O$3&gt;=$F13)*AND(O$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P13" s="18" t="str">
-        <f>IF($D13="","",IF((P$3&gt;=$F13)*AND(P$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q13" s="18" t="str">
-        <f>IF($D13="","",IF((Q$3&gt;=$F13)*AND(Q$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R13" s="18" t="str">
-        <f>IF($D13="","",IF((R$3&gt;=$F13)*AND(R$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S13" s="18" t="str">
-        <f>IF($D13="","",IF((S$3&gt;=$F13)*AND(S$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T13" s="18" t="str">
-        <f>IF($D13="","",IF((T$3&gt;=$F13)*AND(T$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U13" s="18" t="str">
-        <f>IF($D13="","",IF((U$3&gt;=$F13)*AND(U$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V13" s="18" t="str">
-        <f>IF($D13="","",IF((V$3&gt;=$F13)*AND(V$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W13" s="18" t="str">
-        <f>IF($D13="","",IF((W$3&gt;=$F13)*AND(W$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X13" s="18" t="str">
-        <f>IF($D13="","",IF((X$3&gt;=$F13)*AND(X$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y13" s="18" t="str">
-        <f>IF($D13="","",IF((Y$3&gt;=$F13)*AND(Y$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z13" s="18" t="str">
-        <f>IF($D13="","",IF((Z$3&gt;=$F13)*AND(Z$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA13" s="18" t="str">
-        <f>IF($D13="","",IF((AA$3&gt;=$F13)*AND(AA$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB13" s="18" t="str">
-        <f>IF($D13="","",IF((AB$3&gt;=$F13)*AND(AB$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC13" s="18" t="str">
-        <f>IF($D13="","",IF((AC$3&gt;=$F13)*AND(AC$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD13" s="18" t="str">
-        <f>IF($D13="","",IF((AD$3&gt;=$F13)*AND(AD$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE13" s="18" t="str">
-        <f>IF($D13="","",IF((AE$3&gt;=$F13)*AND(AE$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF13" s="18" t="str">
-        <f>IF($D13="","",IF((AF$3&gt;=$F13)*AND(AF$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG13" s="18" t="str">
-        <f>IF($D13="","",IF((AG$3&gt;=$F13)*AND(AG$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH13" s="18" t="str">
-        <f>IF($D13="","",IF((AH$3&gt;=$F13)*AND(AH$3&lt;=$G13),IF($A13="",IF($B13="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2734,127 +2534,127 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="35">
-        <v>0.25</v>
+      <c r="E14" s="27">
+        <v>0.8</v>
       </c>
       <c r="F14" s="21">
         <v>42936</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" ref="G14" si="15">IF(D14="","",WORKDAY(F14,D14,非稼働日)-1)</f>
+        <f t="shared" ref="G14" si="21">IF(D14="","",WORKDAY(F14,D14,非稼働日)-1)</f>
         <v>42936</v>
       </c>
       <c r="H14" s="18" t="str">
-        <f>IF($D14="","",IF((H$3&gt;=$F14)*AND(H$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I14" s="18" t="str">
-        <f>IF($D14="","",IF((I$3&gt;=$F14)*AND(I$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J14" s="18">
-        <f>IF($D14="","",IF((J$3&gt;=$F14)*AND(J$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="K14" s="18" t="str">
-        <f>IF($D14="","",IF((K$3&gt;=$F14)*AND(K$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L14" s="18" t="str">
-        <f>IF($D14="","",IF((L$3&gt;=$F14)*AND(L$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M14" s="18" t="str">
-        <f>IF($D14="","",IF((M$3&gt;=$F14)*AND(M$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N14" s="18" t="str">
-        <f>IF($D14="","",IF((N$3&gt;=$F14)*AND(N$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O14" s="18" t="str">
-        <f>IF($D14="","",IF((O$3&gt;=$F14)*AND(O$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P14" s="18" t="str">
-        <f>IF($D14="","",IF((P$3&gt;=$F14)*AND(P$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q14" s="18" t="str">
-        <f>IF($D14="","",IF((Q$3&gt;=$F14)*AND(Q$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R14" s="18" t="str">
-        <f>IF($D14="","",IF((R$3&gt;=$F14)*AND(R$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S14" s="18" t="str">
-        <f>IF($D14="","",IF((S$3&gt;=$F14)*AND(S$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T14" s="18" t="str">
-        <f>IF($D14="","",IF((T$3&gt;=$F14)*AND(T$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U14" s="18" t="str">
-        <f>IF($D14="","",IF((U$3&gt;=$F14)*AND(U$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V14" s="18" t="str">
-        <f>IF($D14="","",IF((V$3&gt;=$F14)*AND(V$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W14" s="18" t="str">
-        <f>IF($D14="","",IF((W$3&gt;=$F14)*AND(W$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X14" s="18" t="str">
-        <f>IF($D14="","",IF((X$3&gt;=$F14)*AND(X$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y14" s="18" t="str">
-        <f>IF($D14="","",IF((Y$3&gt;=$F14)*AND(Y$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z14" s="18" t="str">
-        <f>IF($D14="","",IF((Z$3&gt;=$F14)*AND(Z$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA14" s="18" t="str">
-        <f>IF($D14="","",IF((AA$3&gt;=$F14)*AND(AA$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB14" s="18" t="str">
-        <f>IF($D14="","",IF((AB$3&gt;=$F14)*AND(AB$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC14" s="18" t="str">
-        <f>IF($D14="","",IF((AC$3&gt;=$F14)*AND(AC$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD14" s="18" t="str">
-        <f>IF($D14="","",IF((AD$3&gt;=$F14)*AND(AD$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE14" s="18" t="str">
-        <f>IF($D14="","",IF((AE$3&gt;=$F14)*AND(AE$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF14" s="18" t="str">
-        <f>IF($D14="","",IF((AF$3&gt;=$F14)*AND(AF$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG14" s="18" t="str">
-        <f>IF($D14="","",IF((AG$3&gt;=$F14)*AND(AG$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH14" s="18" t="str">
-        <f>IF($D14="","",IF((AH$3&gt;=$F14)*AND(AH$3&lt;=$G14),IF($A14="",IF($B14="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2867,8 +2667,8 @@
       <c r="D15" s="17">
         <v>2</v>
       </c>
-      <c r="E15" s="35">
-        <v>0</v>
+      <c r="E15" s="27">
+        <v>1</v>
       </c>
       <c r="F15" s="21">
         <v>42936</v>
@@ -2878,111 +2678,111 @@
         <v>42939</v>
       </c>
       <c r="H15" s="18" t="str">
-        <f>IF($D15="","",IF((H$3&gt;=$F15)*AND(H$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I15" s="18" t="str">
-        <f>IF($D15="","",IF((I$3&gt;=$F15)*AND(I$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J15" s="18">
-        <f>IF($D15="","",IF((J$3&gt;=$F15)*AND(J$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="K15" s="18">
-        <f>IF($D15="","",IF((K$3&gt;=$F15)*AND(K$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L15" s="18">
-        <f>IF($D15="","",IF((L$3&gt;=$F15)*AND(L$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="M15" s="18">
-        <f>IF($D15="","",IF((M$3&gt;=$F15)*AND(M$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="N15" s="18" t="str">
-        <f>IF($D15="","",IF((N$3&gt;=$F15)*AND(N$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O15" s="18" t="str">
-        <f>IF($D15="","",IF((O$3&gt;=$F15)*AND(O$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P15" s="18" t="str">
-        <f>IF($D15="","",IF((P$3&gt;=$F15)*AND(P$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q15" s="18" t="str">
-        <f>IF($D15="","",IF((Q$3&gt;=$F15)*AND(Q$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R15" s="18" t="str">
-        <f>IF($D15="","",IF((R$3&gt;=$F15)*AND(R$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S15" s="18" t="str">
-        <f>IF($D15="","",IF((S$3&gt;=$F15)*AND(S$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T15" s="18" t="str">
-        <f>IF($D15="","",IF((T$3&gt;=$F15)*AND(T$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U15" s="18" t="str">
-        <f>IF($D15="","",IF((U$3&gt;=$F15)*AND(U$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V15" s="18" t="str">
-        <f>IF($D15="","",IF((V$3&gt;=$F15)*AND(V$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W15" s="18" t="str">
-        <f>IF($D15="","",IF((W$3&gt;=$F15)*AND(W$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X15" s="18" t="str">
-        <f>IF($D15="","",IF((X$3&gt;=$F15)*AND(X$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y15" s="18" t="str">
-        <f>IF($D15="","",IF((Y$3&gt;=$F15)*AND(Y$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z15" s="18" t="str">
-        <f>IF($D15="","",IF((Z$3&gt;=$F15)*AND(Z$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA15" s="18" t="str">
-        <f>IF($D15="","",IF((AA$3&gt;=$F15)*AND(AA$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB15" s="18" t="str">
-        <f>IF($D15="","",IF((AB$3&gt;=$F15)*AND(AB$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC15" s="18" t="str">
-        <f>IF($D15="","",IF((AC$3&gt;=$F15)*AND(AC$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD15" s="18" t="str">
-        <f>IF($D15="","",IF((AD$3&gt;=$F15)*AND(AD$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE15" s="18" t="str">
-        <f>IF($D15="","",IF((AE$3&gt;=$F15)*AND(AE$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF15" s="18" t="str">
-        <f>IF($D15="","",IF((AF$3&gt;=$F15)*AND(AF$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG15" s="18" t="str">
-        <f>IF($D15="","",IF((AG$3&gt;=$F15)*AND(AG$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH15" s="18" t="str">
-        <f>IF($D15="","",IF((AH$3&gt;=$F15)*AND(AH$3&lt;=$G15),IF($A15="",IF($B15="",3,2),1),""))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2990,127 +2790,127 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="35">
-        <v>0</v>
+      <c r="E16" s="27">
+        <v>0.2</v>
       </c>
       <c r="F16" s="21">
         <v>42940</v>
       </c>
       <c r="G16" s="22">
-        <f t="shared" ref="G16" si="16">IF(D16="","",WORKDAY(F16,D16,非稼働日)-1)</f>
+        <f t="shared" ref="G16" si="22">IF(D16="","",WORKDAY(F16,D16,非稼働日)-1)</f>
         <v>42940</v>
       </c>
       <c r="H16" s="18" t="str">
-        <f>IF($D16="","",IF((H$3&gt;=$F16)*AND(H$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" ref="H16:W17" si="23">IF($D16="","",IF((H$3&gt;=$F16)*AND(H$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I16" s="18" t="str">
-        <f>IF($D16="","",IF((I$3&gt;=$F16)*AND(I$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J16" s="18" t="str">
-        <f>IF($D16="","",IF((J$3&gt;=$F16)*AND(J$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K16" s="18" t="str">
-        <f>IF($D16="","",IF((K$3&gt;=$F16)*AND(K$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L16" s="18" t="str">
-        <f>IF($D16="","",IF((L$3&gt;=$F16)*AND(L$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M16" s="18" t="str">
-        <f>IF($D16="","",IF((M$3&gt;=$F16)*AND(M$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N16" s="18">
-        <f>IF($D16="","",IF((N$3&gt;=$F16)*AND(N$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="O16" s="18" t="str">
-        <f>IF($D16="","",IF((O$3&gt;=$F16)*AND(O$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P16" s="18" t="str">
-        <f>IF($D16="","",IF((P$3&gt;=$F16)*AND(P$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q16" s="18" t="str">
-        <f>IF($D16="","",IF((Q$3&gt;=$F16)*AND(Q$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R16" s="18" t="str">
-        <f>IF($D16="","",IF((R$3&gt;=$F16)*AND(R$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S16" s="18" t="str">
-        <f>IF($D16="","",IF((S$3&gt;=$F16)*AND(S$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T16" s="18" t="str">
-        <f>IF($D16="","",IF((T$3&gt;=$F16)*AND(T$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U16" s="18" t="str">
-        <f>IF($D16="","",IF((U$3&gt;=$F16)*AND(U$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V16" s="18" t="str">
-        <f>IF($D16="","",IF((V$3&gt;=$F16)*AND(V$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W16" s="18" t="str">
-        <f>IF($D16="","",IF((W$3&gt;=$F16)*AND(W$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="X16" s="18" t="str">
-        <f t="shared" ref="X16:AH16" si="17">IF($D16="","",IF((X$3&gt;=$F16)*AND(X$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
+        <f t="shared" ref="X16:AH16" si="24">IF($D16="","",IF((X$3&gt;=$F16)*AND(X$3&lt;=$G16),IF($A16="",IF($B16="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Z16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AC16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AG16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AH16" s="18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -3118,13 +2918,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="35">
-        <v>0</v>
+      <c r="E17" s="27">
+        <v>0.5</v>
       </c>
       <c r="F17" s="21">
         <v>42940</v>
@@ -3134,111 +2934,111 @@
         <v>42941</v>
       </c>
       <c r="H17" s="18" t="str">
-        <f>IF($D17="","",IF((H$3&gt;=$F17)*AND(H$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I17" s="18" t="str">
-        <f>IF($D17="","",IF((I$3&gt;=$F17)*AND(I$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J17" s="18" t="str">
-        <f>IF($D17="","",IF((J$3&gt;=$F17)*AND(J$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
-        <f>IF($D17="","",IF((K$3&gt;=$F17)*AND(K$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L17" s="18" t="str">
-        <f>IF($D17="","",IF((L$3&gt;=$F17)*AND(L$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M17" s="18" t="str">
-        <f>IF($D17="","",IF((M$3&gt;=$F17)*AND(M$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N17" s="18">
-        <f>IF($D17="","",IF((N$3&gt;=$F17)*AND(N$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="O17" s="18">
-        <f>IF($D17="","",IF((O$3&gt;=$F17)*AND(O$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="P17" s="18" t="str">
-        <f>IF($D17="","",IF((P$3&gt;=$F17)*AND(P$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q17" s="18" t="str">
-        <f>IF($D17="","",IF((Q$3&gt;=$F17)*AND(Q$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R17" s="18" t="str">
-        <f>IF($D17="","",IF((R$3&gt;=$F17)*AND(R$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S17" s="18" t="str">
-        <f>IF($D17="","",IF((S$3&gt;=$F17)*AND(S$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T17" s="18" t="str">
-        <f>IF($D17="","",IF((T$3&gt;=$F17)*AND(T$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U17" s="18" t="str">
-        <f>IF($D17="","",IF((U$3&gt;=$F17)*AND(U$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V17" s="18" t="str">
-        <f>IF($D17="","",IF((V$3&gt;=$F17)*AND(V$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W17" s="18" t="str">
-        <f>IF($D17="","",IF((W$3&gt;=$F17)*AND(W$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="X17" s="18" t="str">
-        <f>IF($D17="","",IF((X$3&gt;=$F17)*AND(X$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" ref="X17:AC17" si="25">IF($D17="","",IF((X$3&gt;=$F17)*AND(X$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="Y17" s="18" t="str">
-        <f>IF($D17="","",IF((Y$3&gt;=$F17)*AND(Y$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z17" s="18" t="str">
-        <f>IF($D17="","",IF((Z$3&gt;=$F17)*AND(Z$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AA17" s="18" t="str">
-        <f>IF($D17="","",IF((AA$3&gt;=$F17)*AND(AA$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB17" s="18" t="str">
-        <f>IF($D17="","",IF((AB$3&gt;=$F17)*AND(AB$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC17" s="18" t="str">
-        <f>IF($D17="","",IF((AC$3&gt;=$F17)*AND(AC$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AD17" s="18" t="str">
-        <f t="shared" ref="I17:AH24" si="18">IF($D17="","",IF((AD$3&gt;=$F17)*AND(AD$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" ref="I17:AH24" si="26">IF($D17="","",IF((AD$3&gt;=$F17)*AND(AD$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AE17" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF17" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG17" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH17" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -3246,127 +3046,127 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="27">
         <v>0</v>
       </c>
       <c r="F18" s="21">
         <v>42941</v>
       </c>
       <c r="G18" s="22">
-        <f t="shared" ref="G18:G19" si="19">IF(D18="","",WORKDAY(F18,D18,非稼働日)-1)</f>
+        <f t="shared" ref="G18:G19" si="27">IF(D18="","",WORKDAY(F18,D18,非稼働日)-1)</f>
         <v>42943</v>
       </c>
       <c r="H18" s="18" t="str">
-        <f>IF($D18="","",IF((H$3&gt;=$F18)*AND(H$3&lt;=$G18),IF($A18="",IF($B18="",3,2),1),""))</f>
+        <f t="shared" ref="H18:H28" si="28">IF($D18="","",IF((H$3&gt;=$F18)*AND(H$3&lt;=$G18),IF($A18="",IF($B18="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="P18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Q18" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="R18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH18" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -3374,127 +3174,127 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17">
         <v>2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="27">
         <v>0</v>
       </c>
       <c r="F19" s="21">
         <v>42944</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>42947</v>
       </c>
       <c r="H19" s="18" t="str">
-        <f>IF($D19="","",IF((H$3&gt;=$F19)*AND(H$3&lt;=$G19),IF($A19="",IF($B19="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="S19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="T19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="U19" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="V19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH19" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -3502,127 +3302,127 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="17">
         <v>2</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="27">
         <v>0</v>
       </c>
       <c r="F20" s="21">
         <v>42947</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" ref="G20" si="20">IF(D20="","",WORKDAY(F20,D20,非稼働日)-1)</f>
+        <f t="shared" ref="G20" si="29">IF(D20="","",WORKDAY(F20,D20,非稼働日)-1)</f>
         <v>42948</v>
       </c>
       <c r="H20" s="18" t="str">
-        <f>IF($D20="","",IF((H$3&gt;=$F20)*AND(H$3&lt;=$G20),IF($A20="",IF($B20="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U20" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="V20" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="W20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH20" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -3630,127 +3430,127 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="27">
         <v>0</v>
       </c>
       <c r="F21" s="21">
         <v>42948</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" ref="G21" si="21">IF(D21="","",WORKDAY(F21,D21,非稼働日)-1)</f>
+        <f t="shared" ref="G21" si="30">IF(D21="","",WORKDAY(F21,D21,非稼働日)-1)</f>
         <v>42949</v>
       </c>
       <c r="H21" s="18" t="str">
-        <f>IF($D21="","",IF((H$3&gt;=$F21)*AND(H$3&lt;=$G21),IF($A21="",IF($B21="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="X21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH21" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -3758,12 +3558,12 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="27">
         <v>0</v>
       </c>
       <c r="F22" s="21">
@@ -3774,111 +3574,111 @@
         <v>42949</v>
       </c>
       <c r="H22" s="18" t="str">
-        <f>IF($D22="","",IF((H$3&gt;=$F22)*AND(H$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I22" s="18" t="str">
-        <f>IF($D22="","",IF((I$3&gt;=$F22)*AND(I$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" ref="I22:AH22" si="31">IF($D22="","",IF((I$3&gt;=$F22)*AND(I$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J22" s="18" t="str">
-        <f>IF($D22="","",IF((J$3&gt;=$F22)*AND(J$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K22" s="18" t="str">
-        <f>IF($D22="","",IF((K$3&gt;=$F22)*AND(K$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L22" s="18" t="str">
-        <f>IF($D22="","",IF((L$3&gt;=$F22)*AND(L$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="M22" s="18" t="str">
-        <f>IF($D22="","",IF((M$3&gt;=$F22)*AND(M$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="N22" s="18" t="str">
-        <f>IF($D22="","",IF((N$3&gt;=$F22)*AND(N$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O22" s="18" t="str">
-        <f>IF($D22="","",IF((O$3&gt;=$F22)*AND(O$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P22" s="18" t="str">
-        <f>IF($D22="","",IF((P$3&gt;=$F22)*AND(P$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q22" s="18" t="str">
-        <f>IF($D22="","",IF((Q$3&gt;=$F22)*AND(Q$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="R22" s="18" t="str">
-        <f>IF($D22="","",IF((R$3&gt;=$F22)*AND(R$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="S22" s="18" t="str">
-        <f>IF($D22="","",IF((S$3&gt;=$F22)*AND(S$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T22" s="18" t="str">
-        <f>IF($D22="","",IF((T$3&gt;=$F22)*AND(T$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U22" s="18" t="str">
-        <f>IF($D22="","",IF((U$3&gt;=$F22)*AND(U$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="V22" s="18" t="str">
-        <f>IF($D22="","",IF((V$3&gt;=$F22)*AND(V$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W22" s="18">
-        <f>IF($D22="","",IF((W$3&gt;=$F22)*AND(W$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="X22" s="18" t="str">
-        <f>IF($D22="","",IF((X$3&gt;=$F22)*AND(X$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y22" s="18" t="str">
-        <f>IF($D22="","",IF((Y$3&gt;=$F22)*AND(Y$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Z22" s="18" t="str">
-        <f>IF($D22="","",IF((Z$3&gt;=$F22)*AND(Z$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AA22" s="18" t="str">
-        <f>IF($D22="","",IF((AA$3&gt;=$F22)*AND(AA$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AB22" s="18" t="str">
-        <f>IF($D22="","",IF((AB$3&gt;=$F22)*AND(AB$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AC22" s="18" t="str">
-        <f>IF($D22="","",IF((AC$3&gt;=$F22)*AND(AC$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AD22" s="18" t="str">
-        <f>IF($D22="","",IF((AD$3&gt;=$F22)*AND(AD$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AE22" s="18" t="str">
-        <f>IF($D22="","",IF((AE$3&gt;=$F22)*AND(AE$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AF22" s="18" t="str">
-        <f>IF($D22="","",IF((AF$3&gt;=$F22)*AND(AF$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AG22" s="18" t="str">
-        <f>IF($D22="","",IF((AG$3&gt;=$F22)*AND(AG$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AH22" s="18" t="str">
-        <f>IF($D22="","",IF((AH$3&gt;=$F22)*AND(AH$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -3886,12 +3686,12 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="27">
         <v>0</v>
       </c>
       <c r="F23" s="21">
@@ -3902,111 +3702,111 @@
         <v>42949</v>
       </c>
       <c r="H23" s="18" t="str">
-        <f>IF($D23="","",IF((H$3&gt;=$F23)*AND(H$3&lt;=$G23),IF($A23="",IF($B23="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W23" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="X23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF23" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG23" s="18" t="str">
-        <f t="shared" ref="I23:AH28" si="22">IF($D23="","",IF((AG$3&gt;=$F23)*AND(AG$3&lt;=$G23),IF($A23="",IF($B23="",3,2),1),""))</f>
+        <f t="shared" ref="I23:AH28" si="32">IF($D23="","",IF((AG$3&gt;=$F23)*AND(AG$3&lt;=$G23),IF($A23="",IF($B23="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AH23" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -4014,12 +3814,12 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17">
         <v>2</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="27">
         <v>0</v>
       </c>
       <c r="F24" s="21">
@@ -4030,111 +3830,111 @@
         <v>42953</v>
       </c>
       <c r="H24" s="18" t="str">
-        <f>IF($D24="","",IF((H$3&gt;=$F24)*AND(H$3&lt;=$G24),IF($A24="",IF($B24="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Y24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Z24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AA24" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AB24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF24" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG24" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH24" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -4143,131 +3943,131 @@
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="35"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="21"/>
       <c r="G25" s="22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H25" s="18" t="str">
-        <f>IF($D25="","",IF((H$3&gt;=$F25)*AND(H$3&lt;=$G25),IF($A25="",IF($B25="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AA25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AB25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AC25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AE25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AF25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AG25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
         <v>2</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="27">
         <v>0</v>
       </c>
       <c r="F26" s="21">
@@ -4278,111 +4078,111 @@
         <v>42954</v>
       </c>
       <c r="H26" s="18" t="str">
-        <f>IF($D26="","",IF((H$3&gt;=$F26)*AND(H$3&lt;=$G26),IF($A26="",IF($B26="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Z26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AA26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AB26" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AC26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AE26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AF26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AG26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH26" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -4390,12 +4190,12 @@
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17">
         <v>2</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="27">
         <v>0</v>
       </c>
       <c r="F27" s="21">
@@ -4406,111 +4206,111 @@
         <v>42954</v>
       </c>
       <c r="H27" s="18" t="str">
-        <f>IF($D27="","",IF((H$3&gt;=$F27)*AND(H$3&lt;=$G27),IF($A27="",IF($B27="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y27" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="Z27" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AA27" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AB27" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AC27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AE27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AF27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AG27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH27" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -4518,12 +4318,12 @@
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="27">
         <v>0</v>
       </c>
       <c r="F28" s="21">
@@ -4534,111 +4334,111 @@
         <v>42954</v>
       </c>
       <c r="H28" s="18" t="str">
-        <f>IF($D28="","",IF((H$3&gt;=$F28)*AND(H$3&lt;=$G28),IF($A28="",IF($B28="",3,2),1),""))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AA28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AB28" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AC28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AD28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AE28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AF28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AG28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AH28" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
@@ -4647,7 +4447,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="35"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18"/>
@@ -4681,13 +4481,13 @@
     <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
         <v>2</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="27">
         <v>0</v>
       </c>
       <c r="F30" s="21">
@@ -4698,111 +4498,111 @@
         <v>42957</v>
       </c>
       <c r="H30" s="18" t="str">
-        <f>IF($D30="","",IF((H$3&gt;=$F30)*AND(H$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
+        <f t="shared" ref="H30:H38" si="33">IF($D30="","",IF((H$3&gt;=$F30)*AND(H$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="I30" s="18" t="str">
-        <f t="shared" ref="I30:AH32" si="23">IF($D30="","",IF((I$3&gt;=$F30)*AND(I$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
+        <f t="shared" ref="I30:AH32" si="34">IF($D30="","",IF((I$3&gt;=$F30)*AND(I$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="S30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="V30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="X30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Y30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AB30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC30" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AD30" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AE30" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AF30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AG30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AH30" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -4810,12 +4610,12 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="27">
         <v>0</v>
       </c>
       <c r="F31" s="21">
@@ -4826,111 +4626,111 @@
         <v>42960</v>
       </c>
       <c r="H31" s="18" t="str">
-        <f>IF($D31="","",IF((H$3&gt;=$F31)*AND(H$3&lt;=$G31),IF($A31="",IF($B31="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="S31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="V31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="X31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Y31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AB31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AD31" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AE31" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AF31" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AG31" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AH31" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
     </row>
@@ -4946,111 +4746,111 @@
         <v/>
       </c>
       <c r="H32" s="18" t="str">
-        <f>IF($D32="","",IF((H$3&gt;=$F32)*AND(H$3&lt;=$G32),IF($A32="",IF($B32="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="S32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="V32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="X32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Y32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AB32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AD32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AE32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AF32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AG32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AH32" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -5066,111 +4866,111 @@
         <v/>
       </c>
       <c r="H33" s="18" t="str">
-        <f>IF($D33="","",IF((H$3&gt;=$F33)*AND(H$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I33" s="18" t="str">
-        <f t="shared" ref="I33:AH36" si="24">IF($D33="","",IF((I$3&gt;=$F33)*AND(I$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
+        <f t="shared" ref="I33:AH36" si="35">IF($D33="","",IF((I$3&gt;=$F33)*AND(I$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Q33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Y33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Z33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AA33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AD33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AE33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AF33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AH33" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5186,111 +4986,111 @@
         <v/>
       </c>
       <c r="H34" s="18" t="str">
-        <f>IF($D34="","",IF((H$3&gt;=$F34)*AND(H$3&lt;=$G34),IF($A34="",IF($B34="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Q34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Y34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Z34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AA34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AD34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AE34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AF34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AH34" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5306,111 +5106,111 @@
         <v/>
       </c>
       <c r="H35" s="18" t="str">
-        <f>IF($D35="","",IF((H$3&gt;=$F35)*AND(H$3&lt;=$G35),IF($A35="",IF($B35="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Q35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Y35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Z35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AA35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AD35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AE35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AF35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AH35" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5426,111 +5226,111 @@
         <v/>
       </c>
       <c r="H36" s="18" t="str">
-        <f>IF($D36="","",IF((H$3&gt;=$F36)*AND(H$3&lt;=$G36),IF($A36="",IF($B36="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Q36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Y36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Z36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AA36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AD36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AE36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AF36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AH36" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5546,111 +5346,111 @@
         <v/>
       </c>
       <c r="H37" s="18" t="str">
-        <f>IF($D37="","",IF((H$3&gt;=$F37)*AND(H$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I37" s="18" t="str">
-        <f t="shared" ref="I37:AH38" si="25">IF($D37="","",IF((I$3&gt;=$F37)*AND(I$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <f t="shared" ref="I37:AH38" si="36">IF($D37="","",IF((I$3&gt;=$F37)*AND(I$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="J37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="O37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="P37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="R37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="T37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="W37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="X37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Y37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Z37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AA37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AB37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AE37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AG37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AH37" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
@@ -5666,111 +5466,111 @@
         <v/>
       </c>
       <c r="H38" s="18" t="str">
-        <f>IF($D38="","",IF((H$3&gt;=$F38)*AND(H$3&lt;=$G38),IF($A38="",IF($B38="",3,2),1),""))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="O38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="P38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="R38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="T38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="V38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="W38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="X38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Y38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Z38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AA38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AB38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AE38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AF38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AG38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AH38" s="18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
@@ -5795,99 +5595,99 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="H4:AH4">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:AH12 H15:AH19 H23:AH38">
-    <cfRule type="expression" dxfId="32" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:AH2">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="33">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:AH13">
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AH22">
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AH14">
-    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:AH21">
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:AH20">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5941,7 +5741,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4">
         <v>42939</v>
       </c>
@@ -5952,7 +5752,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4">
         <v>42945</v>
       </c>
@@ -5963,7 +5763,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4">
         <v>42946</v>
       </c>
@@ -5974,7 +5774,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4">
         <v>42952</v>
       </c>
@@ -5985,7 +5785,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4">
         <v>42953</v>
       </c>
@@ -5996,7 +5796,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4">
         <v>42958</v>
       </c>
@@ -6007,7 +5807,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4">
         <v>42959</v>
       </c>
@@ -6018,7 +5818,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4">
         <v>42960</v>
       </c>
@@ -6029,7 +5829,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="4"/>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -6038,7 +5838,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4"/>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -6047,7 +5847,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -6056,7 +5856,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -6065,7 +5865,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -6074,7 +5874,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -6083,7 +5883,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -6092,7 +5892,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -6101,7 +5901,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -6110,7 +5910,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -6119,7 +5919,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
@@ -6128,7 +5928,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7">
         <f t="shared" si="0"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="41020" yWindow="-2460" windowWidth="25600" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>Firebase Notification</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OkHTTPの導入</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fragmentの導入</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -598,6 +606,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -607,18 +621,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="403">
+  <dxfs count="343">
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2580,6 +2588,166 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
@@ -3154,86 +3322,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
@@ -3244,86 +3332,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3905,606 +3913,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4925,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB68"/>
+  <dimension ref="A1:BB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5139,14 +4547,14 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="11">
         <f>Config!B3</f>
         <v>42934</v>
@@ -5549,7 +4957,7 @@
         <v>42934</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" ref="G5:G66" si="33">IF(D5="","",WORKDAY(F5,D5,非稼働日)-1)</f>
+        <f t="shared" ref="G5:G69" si="33">IF(D5="","",WORKDAY(F5,D5,非稼働日)-1)</f>
         <v>42960</v>
       </c>
       <c r="H5" s="22"/>
@@ -6779,7 +6187,7 @@
         <v>42936</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" ref="G11:I15" si="39">IF(D11="","",WORKDAY(F11,D11,非稼働日)-1)</f>
+        <f t="shared" ref="G11" si="39">IF(D11="","",WORKDAY(F11,D11,非稼働日)-1)</f>
         <v>42940</v>
       </c>
       <c r="H11" s="21">
@@ -7857,8 +7265,8 @@
         <v>13</v>
       </c>
       <c r="E17" s="28">
-        <f>SUM(E18:E36)/COUNT(E18:E36)</f>
-        <v>0.37368421052631584</v>
+        <f>SUM(E18:E39)/COUNT(E18:E39)</f>
+        <v>0.41590909090909095</v>
       </c>
       <c r="F17" s="21">
         <v>42935</v>
@@ -8016,7 +7424,7 @@
         <v/>
       </c>
       <c r="AT17" s="18" t="str">
-        <f t="shared" ref="AT17:BB36" si="44">IF($D17="","",IF((AT$3&gt;=$F17)*AND(AT$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
+        <f t="shared" ref="AT17:BB39" si="44">IF($D17="","",IF((AT$3&gt;=$F17)*AND(AT$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AU17" s="18" t="str">
@@ -9010,7 +8418,7 @@
         <v/>
       </c>
       <c r="AK22" s="18" t="str">
-        <f t="shared" ref="Z22:AT36" si="48">IF($D22="","",IF((AK$3&gt;=$F22)*AND(AK$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
+        <f t="shared" ref="Z22:AT39" si="48">IF($D22="","",IF((AK$3&gt;=$F22)*AND(AK$3&lt;=$G22),IF($A22="",IF($B22="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AL22" s="18" t="str">
@@ -9312,7 +8720,7 @@
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="18" t="str">
-        <f t="shared" ref="J24:Y27" si="49">IF($D24="","",IF((J$3&gt;=$F24)*AND(J$3&lt;=$G24),IF($A24="",IF($B24="",3,2),1),""))</f>
+        <f t="shared" ref="J24:Y28" si="49">IF($D24="","",IF((J$3&gt;=$F24)*AND(J$3&lt;=$G24),IF($A24="",IF($B24="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K24" s="18" t="str">
@@ -9496,23 +8904,27 @@
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
         <v>42941</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" ref="G25" si="50">IF(D25="","",WORKDAY(F25,D25,非稼働日)-1)</f>
-        <v>42942</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+        <f t="shared" si="33"/>
+        <v>42943</v>
+      </c>
+      <c r="H25" s="22">
+        <v>42941</v>
+      </c>
+      <c r="I25" s="22">
+        <v>42941</v>
+      </c>
       <c r="J25" s="18" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -9549,9 +8961,9 @@
         <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="S25" s="18" t="str">
+      <c r="S25" s="18">
         <f t="shared" si="49"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T25" s="18" t="str">
         <f t="shared" si="49"/>
@@ -9658,7 +9070,7 @@
         <v/>
       </c>
       <c r="AT25" s="18" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AU25" s="18" t="str">
@@ -9698,10 +9110,10 @@
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D26" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="27">
         <v>0.2</v>
@@ -9710,10 +9122,12 @@
         <v>42941</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" ref="G26" si="51">IF(D26="","",WORKDAY(F26,D26,非稼働日)-1)</f>
-        <v>42942</v>
-      </c>
-      <c r="H26" s="21"/>
+        <f t="shared" ref="G26" si="50">IF(D26="","",WORKDAY(F26,D26,非稼働日)-1)</f>
+        <v>42943</v>
+      </c>
+      <c r="H26" s="22">
+        <v>42941</v>
+      </c>
       <c r="I26" s="22"/>
       <c r="J26" s="18" t="str">
         <f t="shared" si="49"/>
@@ -9751,9 +9165,9 @@
         <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="S26" s="18" t="str">
+      <c r="S26" s="18">
         <f t="shared" si="49"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T26" s="18" t="str">
         <f t="shared" si="49"/>
@@ -9900,20 +9314,20 @@
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="27">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="21">
         <v>42941</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" si="33"/>
-        <v>42942</v>
+        <f t="shared" ref="G27" si="51">IF(D27="","",WORKDAY(F27,D27,非稼働日)-1)</f>
+        <v>42943</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
@@ -9953,9 +9367,9 @@
         <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="S27" s="18" t="str">
+      <c r="S27" s="18">
         <f t="shared" si="49"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T27" s="18" t="str">
         <f t="shared" si="49"/>
@@ -9982,47 +9396,47 @@
         <v/>
       </c>
       <c r="Z27" s="18" t="str">
-        <f t="shared" ref="Z27:AE27" si="52">IF($D27="","",IF((Z$3&gt;=$F27)*AND(Z$3&lt;=$G27),IF($A27="",IF($B27="",3,2),1),""))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AA27" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AB27" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AC27" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AD27" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AE27" s="18" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AF27" s="18" t="str">
-        <f t="shared" ref="K27:AJ36" si="53">IF($D27="","",IF((AF$3&gt;=$F27)*AND(AF$3&lt;=$G27),IF($A27="",IF($B27="",3,2),1),""))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AG27" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AH27" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AI27" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AJ27" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AK27" s="18" t="str">
@@ -10102,113 +9516,113 @@
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D28" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F28" s="21">
         <v>42942</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" ref="G28:G30" si="54">IF(D28="","",WORKDAY(F28,D28,非稼働日)-1)</f>
-        <v>42946</v>
-      </c>
-      <c r="H28" s="22"/>
+        <f t="shared" si="33"/>
+        <v>42943</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="22"/>
       <c r="J28" s="18" t="str">
-        <f t="shared" ref="J28:Y47" si="55">IF($D28="","",IF((J$3&gt;=$F28)*AND(J$3&lt;=$G28),IF($A28="",IF($B28="",3,2),1),""))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="L28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="M28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="N28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="P28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Q28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R28" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="T28" s="18">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="U28" s="18">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="V28" s="18">
-        <f t="shared" si="53"/>
-        <v>3</v>
+      <c r="T28" s="18" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="U28" s="18" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="V28" s="18" t="str">
+        <f t="shared" si="49"/>
+        <v/>
       </c>
       <c r="W28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="X28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Y28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Z28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="Z28:AE28" si="52">IF($D28="","",IF((Z$3&gt;=$F28)*AND(Z$3&lt;=$G28),IF($A28="",IF($B28="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AB28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AC28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AD28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AE28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AF28" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K28:AJ39" si="53">IF($D28="","",IF((AF$3&gt;=$F28)*AND(AF$3&lt;=$G28),IF($A28="",IF($B28="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AG28" s="18" t="str">
@@ -10264,7 +9678,7 @@
         <v/>
       </c>
       <c r="AT28" s="18" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AU28" s="18" t="str">
@@ -10304,129 +9718,129 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="17">
         <v>2</v>
       </c>
       <c r="E29" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="21">
         <v>42942</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" ref="G29" si="56">IF(D29="","",WORKDAY(F29,D29,非稼働日)-1)</f>
+        <f t="shared" ref="G29:G31" si="54">IF(D29="","",WORKDAY(F29,D29,非稼働日)-1)</f>
         <v>42943</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="J29:Y50" si="55">IF($D29="","",IF((J$3&gt;=$F29)*AND(J$3&lt;=$G29),IF($A29="",IF($B29="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="M29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="N29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="P29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R29" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="T29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="V29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="W29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Y29" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z29" s="18" t="str">
-        <f t="shared" ref="Z29:AY29" si="57">IF($D29="","",IF((Z$3&gt;=$F29)*AND(Z$3&lt;=$G29),IF($A29="",IF($B29="",3,2),1),""))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AA29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AB29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AC29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AD29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AE29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AG29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AH29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AJ29" s="18" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK29" s="18" t="str">
@@ -10506,129 +9920,131 @@
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
       </c>
       <c r="E30" s="27">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F30" s="21">
-        <v>42944</v>
+        <v>42942</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="54"/>
-        <v>42947</v>
-      </c>
-      <c r="H30" s="22"/>
+        <f t="shared" ref="G30" si="56">IF(D30="","",WORKDAY(F30,D30,非稼働日)-1)</f>
+        <v>42943</v>
+      </c>
+      <c r="H30" s="22">
+        <v>42941</v>
+      </c>
       <c r="I30" s="22"/>
       <c r="J30" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="K30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="L30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="M30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="N30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="O30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="P30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Q30" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="R30" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="S30" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="T30" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="R30" s="18">
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
-      <c r="U30" s="18">
-        <f t="shared" si="53"/>
+      <c r="S30" s="18">
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
-      <c r="V30" s="18">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="W30" s="18">
-        <f t="shared" si="53"/>
-        <v>3</v>
+      <c r="T30" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="U30" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="V30" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="W30" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v/>
       </c>
       <c r="X30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Y30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Z30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="Z30:AJ30" si="57">IF($D30="","",IF((Z$3&gt;=$F30)*AND(Z$3&lt;=$G30),IF($A30="",IF($B30="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AB30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AC30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AE30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AF30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AG30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AH30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AI30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AJ30" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AK30" s="18" t="str">
@@ -10708,7 +10124,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -10717,11 +10133,11 @@
         <v>0</v>
       </c>
       <c r="F31" s="21">
+        <v>42944</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="54"/>
         <v>42947</v>
-      </c>
-      <c r="G31" s="22">
-        <f t="shared" ref="G31" si="58">IF(D31="","",WORKDAY(F31,D31,非稼働日)-1)</f>
-        <v>42948</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -10765,25 +10181,25 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="T31" s="18" t="str">
+      <c r="T31" s="18">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="U31" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="U31" s="18">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="V31" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="V31" s="18">
         <f t="shared" si="53"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="18" t="str">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Y31" s="18" t="str">
         <f t="shared" si="53"/>
@@ -10910,7 +10326,7 @@
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
@@ -10919,11 +10335,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="21">
-        <v>42948</v>
+        <v>42944</v>
       </c>
       <c r="G32" s="22">
-        <f t="shared" ref="G32:G43" si="59">IF(D32="","",WORKDAY(F32,D32,非稼働日)-1)</f>
-        <v>42949</v>
+        <f t="shared" ref="G32" si="58">IF(D32="","",WORKDAY(F32,D32,非稼働日)-1)</f>
+        <v>42947</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -10967,29 +10383,29 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="T32" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="U32" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="V32" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="W32" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="X32" s="18">
+      <c r="T32" s="18">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="U32" s="18">
         <f t="shared" si="53"/>
         <v>3</v>
+      </c>
+      <c r="V32" s="18">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="W32" s="18">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="X32" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="Y32" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="Z32" s="18" t="str">
         <f t="shared" si="53"/>
@@ -11112,7 +10528,7 @@
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17">
         <v>2</v>
@@ -11124,7 +10540,7 @@
         <v>42948</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" ref="G33" si="60">IF(D33="","",WORKDAY(F33,D33,非稼働日)-1)</f>
+        <f t="shared" ref="G33:G46" si="59">IF(D33="","",WORKDAY(F33,D33,非稼働日)-1)</f>
         <v>42949</v>
       </c>
       <c r="H33" s="22"/>
@@ -11134,107 +10550,107 @@
         <v/>
       </c>
       <c r="K33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="M33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="N33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="S33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="T33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="V33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="W33" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X33" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="Z33" s="18" t="str">
-        <f t="shared" ref="Z33:AW33" si="61">IF($D33="","",IF((Z$3&gt;=$F33)*AND(Z$3&lt;=$G33),IF($A33="",IF($B33="",3,2),1),""))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AA33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AB33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AC33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AD33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AE33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AG33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AH33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AJ33" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK33" s="18" t="str">
@@ -11289,29 +10705,44 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
-      <c r="AZ33" s="18"/>
-      <c r="BA33" s="18"/>
-      <c r="BB33" s="18"/>
+      <c r="AX33" s="18" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AY33" s="18" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="18" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BA33" s="18" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BB33" s="18" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="27">
         <v>0</v>
       </c>
       <c r="F34" s="21">
-        <v>42949</v>
+        <v>42948</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="G34:G36" si="60">IF(D34="","",WORKDAY(F34,D34,非稼働日)-1)</f>
         <v>42949</v>
       </c>
       <c r="H34" s="22"/>
@@ -11321,147 +10752,147 @@
         <v/>
       </c>
       <c r="K34" s="18" t="str">
-        <f t="shared" ref="K34:AT36" si="62">IF($D34="","",IF((K$3&gt;=$F34)*AND(K$3&lt;=$G34),IF($A34="",IF($B34="",3,2),1),""))</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="L34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="M34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="N34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="O34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="P34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Q34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="T34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="U34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="V34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="W34" s="18" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="X34" s="18" t="str">
-        <f t="shared" si="62"/>
-        <v/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="X34" s="18">
+        <f t="shared" si="55"/>
+        <v>3</v>
       </c>
       <c r="Y34" s="18">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="Z34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="Z34:AJ35" si="61">IF($D34="","",IF((Z$3&gt;=$F34)*AND(Z$3&lt;=$G34),IF($A34="",IF($B34="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AB34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AC34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AD34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AE34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AF34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AG34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AH34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AI34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AJ34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AK34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AL34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AM34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AN34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AQ34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AR34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AS34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AT34" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AU34" s="18" t="str">
@@ -11476,134 +10907,119 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="AX34" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AY34" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="BA34" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="BB34" s="18" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="18"/>
+      <c r="BA34" s="18"/>
+      <c r="BB34" s="18"/>
     </row>
     <row r="35" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D35" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F35" s="21">
+        <v>42948</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="60"/>
         <v>42949</v>
       </c>
-      <c r="G35" s="22">
-        <f t="shared" si="59"/>
-        <v>42949</v>
-      </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="22"/>
       <c r="J35" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="K35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="L35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="M35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="N35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="O35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="P35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Q35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="S35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="T35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="U35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="V35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="W35" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="X35" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="X35" s="18">
+        <f t="shared" si="55"/>
+        <v>3</v>
       </c>
       <c r="Y35" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="Z35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AA35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AB35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AC35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AD35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AE35" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="AF35" s="18" t="str">
@@ -11619,11 +11035,11 @@
         <v/>
       </c>
       <c r="AI35" s="18" t="str">
-        <f t="shared" ref="K35:AJ47" si="63">IF($D35="","",IF((AI$3&gt;=$F35)*AND(AI$3&lt;=$G35),IF($A35="",IF($B35="",3,2),1),""))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AJ35" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK35" s="18" t="str">
@@ -11655,15 +11071,15 @@
         <v/>
       </c>
       <c r="AR35" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AS35" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AT35" s="18" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AU35" s="18" t="str">
@@ -11703,20 +11119,20 @@
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D36" s="17">
         <v>2</v>
       </c>
       <c r="E36" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="21">
-        <v>42950</v>
+        <v>42948</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="59"/>
-        <v>42953</v>
+        <f t="shared" si="60"/>
+        <v>42949</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
@@ -11776,29 +11192,29 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="X36" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="Y36" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="Z36" s="18">
+      <c r="X36" s="18">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="AA36" s="18">
+      <c r="Y36" s="18">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="AB36" s="18">
+      <c r="Z36" s="18" t="str">
         <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="AC36" s="18">
+        <v/>
+      </c>
+      <c r="AA36" s="18" t="str">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v/>
+      </c>
+      <c r="AB36" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="AC36" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="AD36" s="18" t="str">
         <f t="shared" si="53"/>
@@ -11821,11 +11237,11 @@
         <v/>
       </c>
       <c r="AI36" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AJ36" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK36" s="18" t="str">
@@ -11857,11 +11273,11 @@
         <v/>
       </c>
       <c r="AR36" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AS36" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AT36" s="18" t="str">
@@ -11904,11 +11320,22 @@
     <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="C37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>42949</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="59"/>
+        <v>42949</v>
+      </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="18" t="str">
@@ -11916,196 +11343,196 @@
         <v/>
       </c>
       <c r="K37" s="18" t="str">
-        <f t="shared" ref="K37:AJ43" si="64">IF($D37="","",IF((K$3&gt;=$F37)*AND(K$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <f t="shared" ref="K37:AT39" si="62">IF($D37="","",IF((K$3&gt;=$F37)*AND(K$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="M37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="N37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="O37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="P37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="Q37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="R37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="S37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="T37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="W37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="X37" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Y37" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="Y37" s="18">
+        <f t="shared" si="62"/>
+        <v>3</v>
       </c>
       <c r="Z37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AA37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AB37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AC37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AD37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AE37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AF37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AG37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AH37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AI37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AJ37" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AK37" s="18" t="str">
-        <f t="shared" ref="AK37:AZ47" si="65">IF($D37="","",IF((AK$3&gt;=$F37)*AND(AK$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AL37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AM37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AN37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AO37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AP37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AQ37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AR37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AS37" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AT37" s="18" t="str">
-        <f t="shared" ref="AT37:BB45" si="66">IF($D37="","",IF((AT$3&gt;=$F37)*AND(AT$3&lt;=$G37),IF($A37="",IF($B37="",3,2),1),""))</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AU37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AV37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AW37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AY37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AZ37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BA37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BB37" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="D38" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" s="27">
         <v>0</v>
       </c>
       <c r="F38" s="21">
-        <v>42942</v>
+        <v>42949</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="59"/>
@@ -12118,179 +11545,179 @@
         <v/>
       </c>
       <c r="K38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="M38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="N38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="P38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q38" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="R38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="S38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="T38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="U38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="V38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="W38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="X38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="S38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="T38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="V38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="W38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="X38" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="Y38" s="18">
-        <f t="shared" si="64"/>
-        <v>2</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="Z38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AA38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AB38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AC38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AD38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AE38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AG38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AH38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="K38:AJ50" si="63">IF($D38="","",IF((AI$3&gt;=$F38)*AND(AI$3&lt;=$G38),IF($A38="",IF($B38="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AJ38" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AL38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AM38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AN38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AQ38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AR38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AS38" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AT38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AU38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AV38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AW38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AY38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AZ38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BA38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BB38" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
@@ -12298,7 +11725,7 @@
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17">
         <v>2</v>
@@ -12307,11 +11734,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="21">
-        <v>42942</v>
+        <v>42950</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="59"/>
-        <v>42943</v>
+        <v>42953</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -12320,201 +11747,190 @@
         <v/>
       </c>
       <c r="K39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="M39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="N39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="P39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Q39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="R39" s="18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="R39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="S39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="T39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="V39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="W39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="X39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="Y39" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="Z39" s="18">
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="S39" s="18">
-        <f t="shared" si="64"/>
+      <c r="AA39" s="18">
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="T39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="U39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="V39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="W39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="X39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Y39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Z39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="AA39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="AB39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="AC39" s="18" t="str">
-        <f t="shared" si="64"/>
-        <v/>
+      <c r="AB39" s="18">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AC39" s="18">
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="AD39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AE39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AG39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AH39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AI39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AJ39" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AL39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AM39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AN39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AO39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AQ39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AR39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AS39" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="AT39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AU39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AV39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AW39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AY39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AZ39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BA39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="BB39" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="17">
-        <v>6</v>
-      </c>
-      <c r="E40" s="27">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21">
-        <v>42942</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" ref="G40" si="67">IF(D40="","",WORKDAY(F40,D40,非稼働日)-1)</f>
-        <v>42949</v>
-      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="18" t="str">
@@ -12522,7 +11938,7 @@
         <v/>
       </c>
       <c r="K40" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="K40:AJ46" si="64">IF($D40="","",IF((K$3&gt;=$F40)*AND(K$3&lt;=$G40),IF($A40="",IF($B40="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L40" s="18" t="str">
@@ -12549,37 +11965,37 @@
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="S40" s="18">
+        <v/>
+      </c>
+      <c r="S40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="T40" s="18">
+        <v/>
+      </c>
+      <c r="T40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="U40" s="18">
+        <v/>
+      </c>
+      <c r="U40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="V40" s="18">
+        <v/>
+      </c>
+      <c r="V40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="W40" s="18">
+        <v/>
+      </c>
+      <c r="W40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="X40" s="18">
+        <v/>
+      </c>
+      <c r="X40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="Y40" s="18">
+        <v/>
+      </c>
+      <c r="Y40" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Z40" s="18" t="str">
         <f t="shared" si="64"/>
@@ -12618,15 +12034,15 @@
         <v/>
       </c>
       <c r="AI40" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AJ40" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AK40" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="AK40:AZ50" si="65">IF($D40="","",IF((AK$3&gt;=$F40)*AND(AK$3&lt;=$G40),IF($A40="",IF($B40="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AL40" s="18" t="str">
@@ -12662,7 +12078,7 @@
         <v/>
       </c>
       <c r="AT40" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="AT40:BB48" si="66">IF($D40="","",IF((AT$3&gt;=$F40)*AND(AT$3&lt;=$G40),IF($A40="",IF($B40="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AU40" s="18" t="str">
@@ -12700,22 +12116,22 @@
     </row>
     <row r="41" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="B41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E41" s="27">
         <v>0</v>
       </c>
       <c r="F41" s="21">
-        <v>42947</v>
+        <v>42942</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="59"/>
-        <v>42948</v>
+        <v>42949</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
@@ -12751,37 +12167,37 @@
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="R41" s="18" t="str">
+      <c r="R41" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="S41" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="S41" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="T41" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="T41" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="U41" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="U41" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="V41" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="V41" s="18">
         <f t="shared" si="64"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="W41" s="18">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X41" s="18">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="Y41" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="18">
         <f t="shared" si="64"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Z41" s="18" t="str">
         <f t="shared" si="64"/>
@@ -12820,11 +12236,11 @@
         <v/>
       </c>
       <c r="AI41" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AJ41" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AK41" s="18" t="str">
@@ -12904,7 +12320,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
@@ -12913,11 +12329,11 @@
         <v>0</v>
       </c>
       <c r="F42" s="21">
-        <v>42948</v>
+        <v>42942</v>
       </c>
       <c r="G42" s="22">
-        <f t="shared" ref="G42" si="68">IF(D42="","",WORKDAY(F42,D42,非稼働日)-1)</f>
-        <v>42949</v>
+        <f t="shared" si="59"/>
+        <v>42943</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -12953,13 +12369,13 @@
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="R42" s="18" t="str">
+      <c r="R42" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="S42" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="S42" s="18">
         <f t="shared" si="64"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="T42" s="18" t="str">
         <f t="shared" si="64"/>
@@ -12977,13 +12393,13 @@
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="X42" s="18">
+      <c r="X42" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="Y42" s="18">
+        <v/>
+      </c>
+      <c r="Y42" s="18" t="str">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Z42" s="18" t="str">
         <f t="shared" si="64"/>
@@ -13022,11 +12438,11 @@
         <v/>
       </c>
       <c r="AI42" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AJ42" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AK42" s="18" t="str">
@@ -13105,13 +12521,21 @@
     <row r="43" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v/>
+      <c r="C43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="17">
+        <v>6</v>
+      </c>
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="21">
+        <v>42942</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" ref="G43" si="67">IF(D43="","",WORKDAY(F43,D43,非稼働日)-1)</f>
+        <v>42949</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -13147,37 +12571,37 @@
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="R43" s="18" t="str">
+      <c r="R43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="S43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="S43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="T43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="T43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="U43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="U43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="V43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="V43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="W43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="W43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="X43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="X43" s="18">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Y43" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="18">
         <f t="shared" si="64"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Z43" s="18" t="str">
         <f t="shared" si="64"/>
@@ -13299,13 +12723,21 @@
     <row r="44" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+      <c r="C44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="27">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21">
+        <v>42947</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="59"/>
+        <v>42948</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
@@ -13314,99 +12746,99 @@
         <v/>
       </c>
       <c r="K44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="N44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="O44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="P44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Q44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="R44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="S44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="T44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="V44" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="W44" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="X44" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="W44" s="18">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="X44" s="18">
+        <f t="shared" si="64"/>
+        <v>3</v>
       </c>
       <c r="Y44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Z44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AA44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AB44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AC44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AD44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AE44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AF44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AG44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH44" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AI44" s="18" t="str">
@@ -13492,10 +12924,10 @@
     </row>
     <row r="45" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="D45" s="17">
         <v>2</v>
       </c>
@@ -13503,11 +12935,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="21">
-        <v>42951</v>
+        <v>42948</v>
       </c>
       <c r="G45" s="22">
-        <f t="shared" si="33"/>
-        <v>42954</v>
+        <f t="shared" ref="G45" si="68">IF(D45="","",WORKDAY(F45,D45,非稼働日)-1)</f>
+        <v>42949</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -13516,99 +12948,99 @@
         <v/>
       </c>
       <c r="K45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="N45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="O45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="P45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Q45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="R45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="S45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="T45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="V45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="W45" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="X45" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="Y45" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="X45" s="18">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="Y45" s="18">
+        <f t="shared" si="64"/>
+        <v>3</v>
       </c>
       <c r="Z45" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="AA45" s="18">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AB45" s="18">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AC45" s="18">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AD45" s="18">
-        <f t="shared" si="63"/>
-        <v>2</v>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AA45" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AB45" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AC45" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AD45" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
       </c>
       <c r="AE45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AF45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AG45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH45" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AI45" s="18" t="str">
@@ -13695,21 +13127,13 @@
     <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="17">
-        <v>2</v>
-      </c>
-      <c r="E46" s="27">
-        <v>0</v>
-      </c>
-      <c r="F46" s="21">
-        <v>42951</v>
-      </c>
-      <c r="G46" s="22">
-        <f t="shared" si="33"/>
-        <v>42954</v>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22" t="str">
+        <f t="shared" si="59"/>
+        <v/>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -13718,99 +13142,99 @@
         <v/>
       </c>
       <c r="K46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="N46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="O46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="P46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Q46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="R46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="S46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="T46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="V46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="W46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="X46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Y46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="Z46" s="18" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="AA46" s="18">
-        <f t="shared" si="63"/>
-        <v>3</v>
-      </c>
-      <c r="AB46" s="18">
-        <f t="shared" si="63"/>
-        <v>3</v>
-      </c>
-      <c r="AC46" s="18">
-        <f t="shared" si="63"/>
-        <v>3</v>
-      </c>
-      <c r="AD46" s="18">
-        <f t="shared" si="63"/>
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AA46" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AB46" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AC46" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AD46" s="18" t="str">
+        <f t="shared" si="64"/>
+        <v/>
       </c>
       <c r="AE46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AF46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AG46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AH46" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AI46" s="18" t="str">
@@ -13858,60 +13282,52 @@
         <v/>
       </c>
       <c r="AT46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AU46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AV46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AW46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AX46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AY46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AZ46" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="BA46" s="18" t="str">
-        <f t="shared" ref="AT46:BB47" si="69">IF($D46="","",IF((BA$3&gt;=$F46)*AND(BA$3&lt;=$G46),IF($A46="",IF($B46="",3,2),1),""))</f>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="BB46" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="27">
-        <v>0</v>
-      </c>
-      <c r="F47" s="21">
-        <v>42954</v>
-      </c>
-      <c r="G47" s="22">
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22" t="str">
         <f t="shared" si="33"/>
-        <v>42954</v>
+        <v/>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -13995,9 +13411,9 @@
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="AD47" s="18">
+      <c r="AD47" s="18" t="str">
         <f t="shared" si="63"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AE47" s="18" t="str">
         <f t="shared" si="63"/>
@@ -14060,104 +13476,250 @@
         <v/>
       </c>
       <c r="AT47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AU47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AV47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AW47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AX47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AY47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="AZ47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="BA47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="BB47" s="18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="D48" s="17">
+        <v>2</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <v>42951</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="33"/>
+        <v>42954</v>
+      </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
-      <c r="AJ48" s="18"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="18"/>
-      <c r="AM48" s="18"/>
-      <c r="AN48" s="18"/>
-      <c r="AO48" s="18"/>
-      <c r="AP48" s="18"/>
-      <c r="AQ48" s="18"/>
-      <c r="AR48" s="18"/>
-      <c r="AS48" s="18"/>
-      <c r="AT48" s="18"/>
-      <c r="AU48" s="18"/>
-      <c r="AV48" s="18"/>
-      <c r="AW48" s="18"/>
-      <c r="AX48" s="18"/>
-      <c r="AY48" s="18"/>
-      <c r="AZ48" s="18"/>
-      <c r="BA48" s="18"/>
-      <c r="BB48" s="18"/>
+      <c r="J48" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="K48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="L48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="M48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="N48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="O48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="P48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="Q48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="R48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="S48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="T48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="U48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="V48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="W48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="X48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="Y48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="Z48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AA48" s="18">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AB48" s="18">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AC48" s="18">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AD48" s="18">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AE48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AG48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AH48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AI48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AJ48" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AK48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AL48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AM48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AN48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AO48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AP48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AQ48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AR48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AS48" s="18" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AT48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AU48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AV48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AW48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AX48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AY48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AZ48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="BA48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="BB48" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
-      <c r="B49" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="16"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="D49" s="17">
         <v>2</v>
       </c>
@@ -14165,192 +13727,192 @@
         <v>0</v>
       </c>
       <c r="F49" s="21">
-        <v>42955</v>
+        <v>42951</v>
       </c>
       <c r="G49" s="22">
-        <f>IF(D49="","",WORKDAY(F49,D49,非稼働日))</f>
-        <v>42957</v>
+        <f t="shared" si="33"/>
+        <v>42954</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="18" t="str">
-        <f t="shared" ref="J49:Y66" si="70">IF($D49="","",IF((J$3&gt;=$F49)*AND(J$3&lt;=$G49),IF($A49="",IF($B49="",3,2),1),""))</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="K49" s="18" t="str">
-        <f t="shared" ref="K49:AK52" si="71">IF($D49="","",IF((K$3&gt;=$F49)*AND(K$3&lt;=$G49),IF($A49="",IF($B49="",3,2),1),""))</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="L49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="N49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="O49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="P49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Q49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="R49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="S49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="T49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="V49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="W49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="X49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Y49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Z49" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AA49" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AB49" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AC49" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AD49" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AE49" s="18">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="AF49" s="18">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="AG49" s="18">
-        <f t="shared" si="71"/>
-        <v>2</v>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AA49" s="18">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="AB49" s="18">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="AC49" s="18">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="AD49" s="18">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="AE49" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF49" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AG49" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
       </c>
       <c r="AH49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AI49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AJ49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK49" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL49" s="18" t="str">
-        <f t="shared" ref="AK49:AZ66" si="72">IF($D49="","",IF((AL$3&gt;=$F49)*AND(AL$3&lt;=$G49),IF($A49="",IF($B49="",3,2),1),""))</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AM49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AN49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AO49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AP49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AQ49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AR49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AS49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AT49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AU49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AV49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AW49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AX49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AY49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AZ49" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="BA49" s="18" t="str">
-        <f t="shared" ref="AT49:BB66" si="73">IF($D49="","",IF((BA$3&gt;=$F49)*AND(BA$3&lt;=$G49),IF($A49="",IF($B49="",3,2),1),""))</f>
+        <f t="shared" ref="AT49:BB50" si="69">IF($D49="","",IF((BA$3&gt;=$F49)*AND(BA$3&lt;=$G49),IF($A49="",IF($B49="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="BB49" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
     </row>
@@ -14358,7 +13920,7 @@
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17">
         <v>1</v>
@@ -14367,192 +13929,192 @@
         <v>0</v>
       </c>
       <c r="F50" s="21">
-        <v>42957</v>
+        <v>42954</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="33"/>
-        <v>42960</v>
+        <v>42954</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="K50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="L50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="N50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="O50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="P50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Q50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="R50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="S50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="T50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="V50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="W50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="X50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Y50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="Z50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AA50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AB50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AC50" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AD50" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AD50" s="18">
+        <f t="shared" si="63"/>
+        <v>3</v>
       </c>
       <c r="AE50" s="18" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AF50" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AG50" s="18">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="AH50" s="18">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="AI50" s="18">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="AJ50" s="18">
-        <f t="shared" si="71"/>
-        <v>3</v>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AG50" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AH50" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AI50" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AJ50" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v/>
       </c>
       <c r="AK50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AL50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AM50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AN50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AO50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AP50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AQ50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AR50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AS50" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AT50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AU50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AV50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AW50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AX50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AY50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AZ50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="BA50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="BB50" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
     </row>
@@ -14561,255 +14123,116 @@
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="22" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
+      <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="18" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="K51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="L51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="M51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="N51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="O51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="P51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="R51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="S51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="T51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="U51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="V51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="W51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="X51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Y51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Z51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AA51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AB51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AC51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AD51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AE51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AF51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AG51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AH51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AI51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="18" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AK51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AL51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AM51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AN51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AO51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AP51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AQ51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AR51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AS51" s="18" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AT51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AU51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AV51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AW51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AX51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AY51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="AZ51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="BA51" s="18" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="BB51" s="18" t="str">
-        <f>IF($D51="","",IF((BB$3&gt;=$F51)*AND(BB$3&lt;=$G51),IF($A51="",IF($B51="",3,2),1),""))</f>
-        <v/>
-      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>5</v>
-      </c>
-      <c r="E52" s="28">
-        <f>SUM(E53:E66)/COUNT(E53:E66)</f>
+        <v>2</v>
+      </c>
+      <c r="E52" s="27">
         <v>0</v>
       </c>
       <c r="F52" s="21">
-        <v>42961</v>
+        <v>42955</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" si="33"/>
-        <v>42967</v>
-      </c>
-      <c r="H52" s="21"/>
+        <f>IF(D52="","",WORKDAY(F52,D52,非稼働日))</f>
+        <v>42957</v>
+      </c>
+      <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="J52:Y69" si="70">IF($D52="","",IF((J$3&gt;=$F52)*AND(J$3&lt;=$G52),IF($A52="",IF($B52="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="K52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="K52:AK55" si="71">IF($D52="","",IF((K$3&gt;=$F52)*AND(K$3&lt;=$G52),IF($A52="",IF($B52="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="N52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="O52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="R52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="S52" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="T52" s="18" t="str">
@@ -14856,17 +14279,17 @@
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="AE52" s="18" t="str">
+      <c r="AE52" s="18">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AF52" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="18">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="AG52" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="18">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AH52" s="18" t="str">
         <f t="shared" si="71"/>
@@ -14877,36 +14300,36 @@
         <v/>
       </c>
       <c r="AJ52" s="18" t="str">
-        <f t="shared" ref="AJ52" si="74">IF($D52="","",IF((AJ$3&gt;=$F52)*AND(AJ$3&lt;=$G52),IF($A52="",IF($B52="",3,2),1),""))</f>
-        <v/>
-      </c>
-      <c r="AK52" s="18">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="AK52" s="18" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="AL52" s="18" t="str">
+        <f t="shared" ref="AK52:AZ69" si="72">IF($D52="","",IF((AL$3&gt;=$F52)*AND(AL$3&lt;=$G52),IF($A52="",IF($B52="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AM52" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AL52" s="18">
+        <v/>
+      </c>
+      <c r="AN52" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AM52" s="18">
+        <v/>
+      </c>
+      <c r="AO52" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AN52" s="18">
+        <v/>
+      </c>
+      <c r="AP52" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AO52" s="18">
+        <v/>
+      </c>
+      <c r="AQ52" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AP52" s="18">
-        <f t="shared" si="72"/>
-        <v>2</v>
-      </c>
-      <c r="AQ52" s="18">
-        <f t="shared" si="72"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AR52" s="18" t="str">
         <f t="shared" si="72"/>
@@ -14917,35 +14340,35 @@
         <v/>
       </c>
       <c r="AT52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AV52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AW52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AX52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AY52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AZ52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BA52" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="AT52:BB69" si="73">IF($D52="","",IF((BA$3&gt;=$F52)*AND(BA$3&lt;=$G52),IF($A52="",IF($B52="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="BB52" s="18" t="str">
@@ -14957,138 +14380,138 @@
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D53" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="27">
         <v>0</v>
       </c>
       <c r="F53" s="21">
-        <v>42961</v>
+        <v>42957</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="33"/>
-        <v>42962</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+        <v>42960</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="K53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="N53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="O53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="R53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="S53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="T53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="U53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="V53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="X53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Y53" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Z53" s="18" t="str">
-        <f t="shared" ref="Z53:AK60" si="75">IF($D53="","",IF((Z$3&gt;=$F53)*AND(Z$3&lt;=$G53),IF($A53="",IF($B53="",3,2),1),""))</f>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AA53" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AB53" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AC53" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AD53" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AE53" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AF53" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AG53" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AH53" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AI53" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AJ53" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AK53" s="18">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="AG53" s="18">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="AH53" s="18">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="AI53" s="18">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="AJ53" s="18">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="AK53" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>3</v>
-      </c>
-      <c r="AL53" s="18">
+        <v/>
+      </c>
+      <c r="AL53" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AM53" s="18" t="str">
         <f t="shared" si="72"/>
@@ -15119,7 +14542,7 @@
         <v/>
       </c>
       <c r="AT53" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AU53" s="18" t="str">
@@ -15158,139 +14581,131 @@
     <row r="54" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="17">
-        <v>2</v>
-      </c>
-      <c r="E54" s="27">
-        <v>0</v>
-      </c>
-      <c r="F54" s="21">
-        <v>42961</v>
-      </c>
-      <c r="G54" s="22">
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22" t="str">
         <f t="shared" si="33"/>
-        <v>42962</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+        <v/>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="K54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="N54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="O54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Q54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="R54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="S54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="T54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="U54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="V54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="X54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Y54" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Z54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AA54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AB54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AC54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AD54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AE54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AF54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AG54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AH54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AI54" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AJ54" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AK54" s="18">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="AK54" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>3</v>
-      </c>
-      <c r="AL54" s="18">
+        <v/>
+      </c>
+      <c r="AL54" s="18" t="str">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AM54" s="18" t="str">
         <f t="shared" si="72"/>
@@ -15353,31 +14768,32 @@
         <v/>
       </c>
       <c r="BB54" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f>IF($D54="","",IF((BB$3&gt;=$F54)*AND(BB$3&lt;=$G54),IF($A54="",IF($B54="",3,2),1),""))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="B55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>4</v>
-      </c>
-      <c r="E55" s="27">
+        <v>5</v>
+      </c>
+      <c r="E55" s="28">
+        <f>SUM(E56:E69)/COUNT(E56:E69)</f>
         <v>0</v>
       </c>
       <c r="F55" s="21">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="G55" s="22">
         <f t="shared" si="33"/>
         <v>42967</v>
       </c>
       <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
@@ -15419,100 +14835,100 @@
         <v/>
       </c>
       <c r="T55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="U55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="V55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="X55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Y55" s="18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="Z55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AA55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AB55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AC55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AD55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AE55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AF55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AG55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AH55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AI55" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="AJ55" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AK55" s="18" t="str">
+        <f t="shared" ref="AJ55" si="74">IF($D55="","",IF((AJ$3&gt;=$F55)*AND(AJ$3&lt;=$G55),IF($A55="",IF($B55="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="AK55" s="18">
         <f t="shared" si="72"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AL55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ55" s="18">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR55" s="18" t="str">
         <f t="shared" si="72"/>
@@ -15562,13 +14978,21 @@
     <row r="56" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22" t="str">
+      <c r="C56" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="21">
+        <v>42961</v>
+      </c>
+      <c r="G56" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>42962</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -15637,7 +15061,7 @@
         <v/>
       </c>
       <c r="Z56" s="18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="Z56:AK63" si="75">IF($D56="","",IF((Z$3&gt;=$F56)*AND(Z$3&lt;=$G56),IF($A56="",IF($B56="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="AA56" s="18" t="str">
@@ -15680,13 +15104,13 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AK56" s="18" t="str">
+      <c r="AK56" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AL56" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AL56" s="18">
         <f t="shared" si="72"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AM56" s="18" t="str">
         <f t="shared" si="72"/>
@@ -15717,7 +15141,7 @@
         <v/>
       </c>
       <c r="AT56" s="18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU56" s="18" t="str">
@@ -15756,16 +15180,24 @@
     <row r="57" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22" t="str">
+      <c r="C57" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21">
+        <v>42961</v>
+      </c>
+      <c r="G57" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>42962</v>
       </c>
       <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
@@ -15874,13 +15306,13 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="AK57" s="18" t="str">
+      <c r="AK57" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AL57" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AL57" s="18">
         <f t="shared" si="72"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AM57" s="18" t="str">
         <f t="shared" si="72"/>
@@ -15950,16 +15382,24 @@
     <row r="58" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22" t="str">
+      <c r="C58" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="17">
+        <v>4</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0</v>
+      </c>
+      <c r="F58" s="21">
+        <v>42962</v>
+      </c>
+      <c r="G58" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>42967</v>
       </c>
       <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
@@ -16069,32 +15509,32 @@
         <v/>
       </c>
       <c r="AK58" s="18" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="AL58" s="18" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="AM58" s="18" t="str">
+      <c r="AL58" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AN58" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AM58" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AO58" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AN58" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AP58" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AO58" s="18">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="AQ58" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="AP58" s="18">
         <f t="shared" si="72"/>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="AQ58" s="18">
+        <f t="shared" si="72"/>
+        <v>3</v>
       </c>
       <c r="AR58" s="18" t="str">
         <f t="shared" si="72"/>
@@ -16152,8 +15592,8 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
@@ -16346,7 +15786,7 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H60" s="22"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="22"/>
       <c r="J60" s="18" t="str">
         <f t="shared" si="70"/>
@@ -16534,124 +15974,124 @@
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="21"/>
       <c r="G61" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H61" s="22"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="22"/>
       <c r="J61" s="18" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="K61" s="18" t="str">
-        <f t="shared" ref="K61:AK64" si="76">IF($D61="","",IF((K$3&gt;=$F61)*AND(K$3&lt;=$G61),IF($A61="",IF($B61="",3,2),1),""))</f>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="L61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="N61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="O61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="P61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="R61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="S61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="T61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="U61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="V61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="W61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="X61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Y61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Z61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AA61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AB61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AC61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AD61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AE61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AF61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AG61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AH61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AI61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AJ61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AK61" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AL61" s="18" t="str">
@@ -16719,7 +16159,7 @@
         <v/>
       </c>
       <c r="BB61" s="18" t="str">
-        <f>IF($D61="","",IF((BB$3&gt;=$F61)*AND(BB$3&lt;=$G61),IF($A61="",IF($B61="",3,2),1),""))</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -16728,7 +16168,7 @@
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="21"/>
       <c r="G62" s="22" t="str">
         <f t="shared" si="33"/>
@@ -16741,107 +16181,107 @@
         <v/>
       </c>
       <c r="K62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="L62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="N62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="O62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="P62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="R62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="S62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="T62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="U62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="V62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="W62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="X62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Y62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Z62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AA62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AB62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AC62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AD62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AE62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AF62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AG62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AH62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AI62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AJ62" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AK62" s="18" t="str">
@@ -16913,7 +16353,7 @@
         <v/>
       </c>
       <c r="BB62" s="18" t="str">
-        <f>IF($D62="","",IF((BB$3&gt;=$F62)*AND(BB$3&lt;=$G62),IF($A62="",IF($B62="",3,2),1),""))</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -16922,7 +16362,7 @@
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="21"/>
       <c r="G63" s="22" t="str">
         <f t="shared" si="33"/>
@@ -16935,107 +16375,107 @@
         <v/>
       </c>
       <c r="K63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="L63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="N63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="O63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="P63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Q63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="R63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="S63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="T63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="U63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="V63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="W63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="X63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Y63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="Z63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AA63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AB63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AC63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AD63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AE63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AF63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AG63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AH63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AI63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AJ63" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AK63" s="18" t="str">
@@ -17107,7 +16547,7 @@
         <v/>
       </c>
       <c r="BB63" s="18" t="str">
-        <f>IF($D63="","",IF((BB$3&gt;=$F63)*AND(BB$3&lt;=$G63),IF($A63="",IF($B63="",3,2),1),""))</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -17129,7 +16569,7 @@
         <v/>
       </c>
       <c r="K64" s="18" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="K64:AK67" si="76">IF($D64="","",IF((K$3&gt;=$F64)*AND(K$3&lt;=$G64),IF($A64="",IF($B64="",3,2),1),""))</f>
         <v/>
       </c>
       <c r="L64" s="18" t="str">
@@ -17233,7 +16673,7 @@
         <v/>
       </c>
       <c r="AK64" s="18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AL64" s="18" t="str">
@@ -17301,7 +16741,7 @@
         <v/>
       </c>
       <c r="BB64" s="18" t="str">
-        <f>IF($D64="","",IF((BB$3&gt;=$F64)*AND(BB$3&lt;=$G64),IF($A64="",IF($B64="",3,2),1),""))</f>
+        <f t="shared" ref="BB64:BB69" si="77">IF($D64="","",IF((BB$3&gt;=$F64)*AND(BB$3&lt;=$G64),IF($A64="",IF($B64="",3,2),1),""))</f>
         <v/>
       </c>
     </row>
@@ -17323,111 +16763,111 @@
         <v/>
       </c>
       <c r="K65" s="18" t="str">
-        <f t="shared" ref="K65:AK66" si="77">IF($D65="","",IF((K$3&gt;=$F65)*AND(K$3&lt;=$G65),IF($A65="",IF($B65="",3,2),1),""))</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="L65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="N65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="O65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="P65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Q65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="T65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="U65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="V65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="W65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="X65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Z65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AA65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AB65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AC65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AD65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AE65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AF65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AG65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AH65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AI65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AJ65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AK65" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AL65" s="18" t="str">
@@ -17495,7 +16935,7 @@
         <v/>
       </c>
       <c r="BB65" s="18" t="str">
-        <f>IF($D65="","",IF((BB$3&gt;=$F65)*AND(BB$3&lt;=$G65),IF($A65="",IF($B65="",3,2),1),""))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
@@ -17517,107 +16957,107 @@
         <v/>
       </c>
       <c r="K66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="L66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="N66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="O66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="P66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Q66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="T66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="U66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="V66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="W66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="X66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Z66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AA66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AB66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AC66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AD66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AE66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AF66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AG66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AH66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AI66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AJ66" s="18" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AK66" s="18" t="str">
@@ -17689,24 +17129,606 @@
         <v/>
       </c>
       <c r="BB66" s="18" t="str">
-        <f>IF($D66="","",IF((BB$3&gt;=$F66)*AND(BB$3&lt;=$G66),IF($A66="",IF($B66="",3,2),1),""))</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="19"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="18" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="K67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="L67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="M67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="N67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="O67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="P67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="Q67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="R67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="S67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="T67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="U67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="V67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="W67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="X67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="Y67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="Z67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AA67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AB67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AC67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AD67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AE67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AF67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AG67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AH67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AI67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AJ67" s="18" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="AK67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AL67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AM67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AN67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AO67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AP67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AQ67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AR67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AS67" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AT67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AU67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AW67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AX67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AY67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AZ67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BA67" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BB67" s="18" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="18" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="K68" s="18" t="str">
+        <f t="shared" ref="K68:AK69" si="78">IF($D68="","",IF((K$3&gt;=$F68)*AND(K$3&lt;=$G68),IF($A68="",IF($B68="",3,2),1),""))</f>
+        <v/>
+      </c>
+      <c r="L68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="M68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="N68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="O68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="P68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Q68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="R68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="T68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="U68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="V68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="W68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="X68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Y68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AA68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AB68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AC68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AD68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AE68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AF68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AG68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AH68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AI68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AJ68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AK68" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AL68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AM68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AN68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AO68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AP68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AQ68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AR68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AS68" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AT68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AU68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AW68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AX68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AY68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AZ68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BA68" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BB68" s="18" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="18" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="K69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="L69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="M69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="N69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="O69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="P69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Q69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="R69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="T69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="U69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="V69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="W69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="X69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Y69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="Z69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AA69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AB69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AC69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AD69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AE69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AF69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AG69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AH69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AI69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AJ69" s="18" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="AK69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AL69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AM69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AN69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AO69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AP69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AQ69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AR69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AS69" s="18" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AT69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AU69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AW69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AX69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AY69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AZ69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BA69" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="BB69" s="18" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -17718,805 +17740,875 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J4:AJ4">
-    <cfRule type="cellIs" dxfId="330" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="347" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:AJ9 J21:AJ21 J35:AJ36 J16:AJ18 J44:AJ51 J61:AJ66 J30:AJ30 J26:AJ28">
-    <cfRule type="expression" dxfId="328" priority="313" stopIfTrue="1">
+  <conditionalFormatting sqref="J5:AJ9 J21:AJ21 J38:AJ39 J16:AJ18 J47:AJ54 J64:AJ69 J31:AJ31 J27:AJ29">
+    <cfRule type="expression" dxfId="328" priority="337" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="345" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:BB2">
-    <cfRule type="notContainsBlanks" dxfId="324" priority="325">
+    <cfRule type="notContainsBlanks" dxfId="324" priority="349">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:AJ19">
-    <cfRule type="expression" dxfId="323" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="333" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="336" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:AJ37">
+    <cfRule type="expression" dxfId="319" priority="329" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="330" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="331" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="332" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:AJ20">
+    <cfRule type="expression" dxfId="315" priority="325" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="326" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="327" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="328" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:AJ33">
+    <cfRule type="expression" dxfId="311" priority="321" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="322" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="324" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:AJ32">
+    <cfRule type="expression" dxfId="307" priority="317" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="319" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:AJ10 J12:AJ13 J15:AJ15">
+    <cfRule type="expression" dxfId="303" priority="313" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="314" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="315" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="316" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:AJ11">
+    <cfRule type="expression" dxfId="299" priority="309" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="310" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="311" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="312" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:AJ44 J46:AJ46">
+    <cfRule type="expression" dxfId="295" priority="305" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="307" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="308" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:AJ41">
+    <cfRule type="expression" dxfId="291" priority="289" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="291" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="292" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:AJ42">
+    <cfRule type="expression" dxfId="287" priority="297" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="299" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="300" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:AJ14">
+    <cfRule type="expression" dxfId="283" priority="281" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="282" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="283" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="284" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:AJ45">
+    <cfRule type="expression" dxfId="279" priority="277" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="278" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="279" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="280" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:AJ40">
+    <cfRule type="expression" dxfId="275" priority="285" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="287" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="288" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4:AS4">
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5:AS9 AK21:AS21 AK38:AS39 AK16:AS18 AK47:AS54 AK64:AS69 AK31:AS31 AK27:AS29">
+    <cfRule type="expression" dxfId="269" priority="271" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="273" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="274" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19:AS19">
+    <cfRule type="expression" dxfId="265" priority="267" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="268" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="269" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37:AS37">
+    <cfRule type="expression" dxfId="261" priority="263" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="264" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="265" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="266" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20:AS20">
+    <cfRule type="expression" dxfId="257" priority="259" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="261" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="262" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33:AS33">
+    <cfRule type="expression" dxfId="253" priority="255" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="256" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="257" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32:AS32">
+    <cfRule type="expression" dxfId="249" priority="251" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="252" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="253" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="254" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10:AS10 AK12:AS13 AK15:AS15">
+    <cfRule type="expression" dxfId="245" priority="247" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="248" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="249" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="250" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11:AS11">
+    <cfRule type="expression" dxfId="241" priority="243" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="244" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="245" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="246" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK44:AS44 AK46:AS46">
+    <cfRule type="expression" dxfId="237" priority="239" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="240" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="241" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK41:AS41">
+    <cfRule type="expression" dxfId="233" priority="223" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="224" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="225" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="226" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK42:AS42">
+    <cfRule type="expression" dxfId="229" priority="231" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="232" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="233" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="234" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14:AS14">
+    <cfRule type="expression" dxfId="225" priority="215" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="216" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="217" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK45:AS45">
+    <cfRule type="expression" dxfId="221" priority="211" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="212" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="213" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="214" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40:AS40">
+    <cfRule type="expression" dxfId="217" priority="219" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="221" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="222" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4:BB4">
+    <cfRule type="cellIs" dxfId="213" priority="209" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="210" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT5:BB9 AT21:BB21 AT38:BB39 AT16:BB18 AT47:BB54 AT64:BB69 AT31:BB31 AT27:BB29">
+    <cfRule type="expression" dxfId="211" priority="205" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="207" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="208" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19:BB19">
+    <cfRule type="expression" dxfId="207" priority="201" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="203" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="204" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT37:BB37">
+    <cfRule type="expression" dxfId="203" priority="197" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="199" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT20:BB20">
+    <cfRule type="expression" dxfId="199" priority="193" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="196" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT33:BB33 AX34:BB34">
+    <cfRule type="expression" dxfId="195" priority="189" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="191" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT32:BB32">
+    <cfRule type="expression" dxfId="191" priority="185" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="186" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="187" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="188" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT10:BB10 AT12:BB13 AT15:BB15">
+    <cfRule type="expression" dxfId="187" priority="181" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="183" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT11:BB11">
+    <cfRule type="expression" dxfId="183" priority="177" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="179" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="180" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT44:BB44 AT46:BB46">
+    <cfRule type="expression" dxfId="179" priority="173" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT41:BB41">
+    <cfRule type="expression" dxfId="175" priority="157" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT42:BB42">
+    <cfRule type="expression" dxfId="171" priority="165" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="168" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14:BB14">
+    <cfRule type="expression" dxfId="167" priority="149" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT45:BB45">
+    <cfRule type="expression" dxfId="163" priority="145" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT40:BB40">
+    <cfRule type="expression" dxfId="159" priority="153" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:AJ57">
+    <cfRule type="expression" dxfId="155" priority="137" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="139" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:AJ58">
+    <cfRule type="expression" dxfId="151" priority="133" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="135" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="136" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:AJ63 J55:AJ56">
+    <cfRule type="expression" dxfId="147" priority="141" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK57:AS57">
+    <cfRule type="expression" dxfId="143" priority="125" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="127" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="128" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK58:AS58">
+    <cfRule type="expression" dxfId="139" priority="121" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="123" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="124" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK59:AS63 AK55:AS56">
+    <cfRule type="expression" dxfId="135" priority="129" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT57:BB57">
+    <cfRule type="expression" dxfId="131" priority="113" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT58:BB58">
+    <cfRule type="expression" dxfId="127" priority="109" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="111" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT59:BB63 AT55:BB56">
+    <cfRule type="expression" dxfId="123" priority="117" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30:AS30">
+    <cfRule type="expression" dxfId="119" priority="101" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="103" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="104" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT30:BB30">
+    <cfRule type="expression" dxfId="115" priority="97" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:AJ30">
+    <cfRule type="expression" dxfId="111" priority="105" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK43:AS43">
+    <cfRule type="expression" dxfId="107" priority="89" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:AJ43">
+    <cfRule type="expression" dxfId="103" priority="93" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT43:BB43">
+    <cfRule type="expression" dxfId="99" priority="85" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:AJ34">
-    <cfRule type="expression" dxfId="319" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="81" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="308" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:AJ20">
-    <cfRule type="expression" dxfId="315" priority="301" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="302" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="303" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="304" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:AJ32">
-    <cfRule type="expression" dxfId="311" priority="297" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="298" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="299" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="300" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:AJ31">
-    <cfRule type="expression" dxfId="307" priority="293" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="294" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="295" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="296" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:AJ10 J12:AJ13 J15:AJ15">
-    <cfRule type="expression" dxfId="303" priority="289" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="290" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="291" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="292" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:AJ11">
-    <cfRule type="expression" dxfId="299" priority="285" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="286" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="287" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="288" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:AJ41 J43:AJ43">
-    <cfRule type="expression" dxfId="295" priority="281" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="282" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="283" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="284" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:AJ38">
-    <cfRule type="expression" dxfId="291" priority="265" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="266" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="267" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="268" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:AJ39">
-    <cfRule type="expression" dxfId="287" priority="273" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="274" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="275" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="276" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:AJ14">
-    <cfRule type="expression" dxfId="283" priority="257" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="258" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="259" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="260" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:AJ42">
-    <cfRule type="expression" dxfId="279" priority="253" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="255" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="256" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:AJ37">
-    <cfRule type="expression" dxfId="275" priority="261" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="262" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="263" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="264" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK4:AS4">
-    <cfRule type="cellIs" dxfId="263" priority="251" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="252" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AS9 AK21:AS21 AK35:AS36 AK16:AS18 AK44:AS51 AK61:AS66 AK30:AS30 AK26:AS28">
-    <cfRule type="expression" dxfId="261" priority="247" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="248" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="249" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="250" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19:AS19">
-    <cfRule type="expression" dxfId="257" priority="243" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="244" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="245" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK34:AS34">
-    <cfRule type="expression" dxfId="253" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="77" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK20:AS20">
-    <cfRule type="expression" dxfId="249" priority="235" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="236" operator="equal">
+  <conditionalFormatting sqref="AT34:AW34">
+    <cfRule type="expression" dxfId="87" priority="73" stopIfTrue="1">
+      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK32:AS32">
-    <cfRule type="expression" dxfId="245" priority="231" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="232" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="233" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="234" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31:AS31">
-    <cfRule type="expression" dxfId="241" priority="227" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="229" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="230" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10:AS10 AK12:AS13 AK15:AS15">
-    <cfRule type="expression" dxfId="237" priority="223" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="224" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="225" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="226" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11:AS11">
-    <cfRule type="expression" dxfId="233" priority="219" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="221" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="222" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK41:AS41 AK43:AS43">
-    <cfRule type="expression" dxfId="229" priority="215" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="217" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="218" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK38:AS38">
-    <cfRule type="expression" dxfId="225" priority="199" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="200" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="201" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="202" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK39:AS39">
-    <cfRule type="expression" dxfId="221" priority="207" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="208" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="209" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="210" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14:AS14">
-    <cfRule type="expression" dxfId="217" priority="191" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="192" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="193" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="194" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK42:AS42">
-    <cfRule type="expression" dxfId="213" priority="187" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="188" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="189" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="190" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37:AS37">
-    <cfRule type="expression" dxfId="209" priority="195" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="196" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="197" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="198" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4:BB4">
-    <cfRule type="cellIs" dxfId="197" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="186" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT5:BB9 AT21:BB21 AT35:BB36 AT16:BB18 AT44:BB51 AT61:BB66 AT30:BB30 AT26:BB28">
-    <cfRule type="expression" dxfId="195" priority="181" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="182" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="183" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="184" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT19:BB19">
-    <cfRule type="expression" dxfId="191" priority="177" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="179" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="180" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT34:BB34">
-    <cfRule type="expression" dxfId="187" priority="173" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="175" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="176" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT20:BB20">
-    <cfRule type="expression" dxfId="183" priority="169" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="171" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="172" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT32:BB32 AX33:BB33">
-    <cfRule type="expression" dxfId="179" priority="165" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="167" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="168" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT31:BB31">
-    <cfRule type="expression" dxfId="175" priority="161" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="163" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT10:BB10 AT12:BB13 AT15:BB15">
-    <cfRule type="expression" dxfId="171" priority="157" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="158" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="159" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="160" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT11:BB11">
-    <cfRule type="expression" dxfId="167" priority="153" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="155" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="156" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT41:BB41 AT43:BB43">
-    <cfRule type="expression" dxfId="163" priority="149" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="151" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="152" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT38:BB38">
-    <cfRule type="expression" dxfId="159" priority="133" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="135" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="136" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:BB39">
-    <cfRule type="expression" dxfId="155" priority="141" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="143" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="144" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:BB14">
-    <cfRule type="expression" dxfId="151" priority="125" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="126" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="128" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT42:BB42">
-    <cfRule type="expression" dxfId="147" priority="121" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="123" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="124" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT37:BB37">
-    <cfRule type="expression" dxfId="143" priority="129" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="131" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="132" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:AJ54">
-    <cfRule type="expression" dxfId="139" priority="113" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="115" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="116" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:AJ55">
-    <cfRule type="expression" dxfId="135" priority="109" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="111" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56:AJ60 J52:AJ53">
-    <cfRule type="expression" dxfId="131" priority="117" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="119" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="120" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK54:AS54">
-    <cfRule type="expression" dxfId="127" priority="101" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="103" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="104" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK55:AS55">
-    <cfRule type="expression" dxfId="123" priority="97" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="99" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="100" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK56:AS60 AK52:AS53">
-    <cfRule type="expression" dxfId="119" priority="105" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT54:BB54">
-    <cfRule type="expression" dxfId="115" priority="89" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="91" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="92" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT55:BB55">
-    <cfRule type="expression" dxfId="111" priority="85" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="87" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT56:BB60 AT52:BB53">
-    <cfRule type="expression" dxfId="107" priority="93" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29:AS29">
-    <cfRule type="expression" dxfId="103" priority="77" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="79" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="80" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT29:BB29">
-    <cfRule type="expression" dxfId="99" priority="73" stopIfTrue="1">
-      <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="75" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="76" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:AJ29">
-    <cfRule type="expression" dxfId="95" priority="81" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40:AS40">
-    <cfRule type="expression" dxfId="91" priority="65" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:AJ40">
+  <conditionalFormatting sqref="J24:AJ24">
     <cfRule type="expression" dxfId="83" priority="69" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18530,7 +18622,21 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT40:BB40">
+  <conditionalFormatting sqref="AK24:AS24">
+    <cfRule type="expression" dxfId="79" priority="65" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT24:BB24">
     <cfRule type="expression" dxfId="75" priority="61" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18544,7 +18650,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:AJ33">
+  <conditionalFormatting sqref="J26:AJ26">
     <cfRule type="expression" dxfId="71" priority="57" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18558,7 +18664,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33:AS33">
+  <conditionalFormatting sqref="AK26:AS26">
     <cfRule type="expression" dxfId="67" priority="53" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18572,7 +18678,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT33:AW33">
+  <conditionalFormatting sqref="AT26:BB26">
     <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18586,7 +18692,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:AJ24">
+  <conditionalFormatting sqref="J23:AJ23">
     <cfRule type="expression" dxfId="59" priority="45" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18600,7 +18706,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AS24">
+  <conditionalFormatting sqref="AK23:AS23">
     <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18614,7 +18720,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT24:BB24">
+  <conditionalFormatting sqref="AT23:BB23">
     <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18628,7 +18734,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:AJ25">
+  <conditionalFormatting sqref="J22:AJ22">
     <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18642,7 +18748,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK25:AS25">
+  <conditionalFormatting sqref="AK22:AS22">
     <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18656,7 +18762,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT25:BB25">
+  <conditionalFormatting sqref="AT22:BB22">
     <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18670,7 +18776,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:AJ23">
+  <conditionalFormatting sqref="J25:AJ25">
     <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18684,7 +18790,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK23:AS23">
+  <conditionalFormatting sqref="AK25:AS25">
     <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18698,7 +18804,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT23:BB23">
+  <conditionalFormatting sqref="AT25:BB25">
     <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18712,7 +18818,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:AJ22">
+  <conditionalFormatting sqref="J35:AJ36">
     <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18726,7 +18832,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK22:AS22">
+  <conditionalFormatting sqref="AK35:AS36">
     <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18740,7 +18846,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT22:BB22">
+  <conditionalFormatting sqref="AT35:BB36">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>MATCH(AT$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -18757,7 +18863,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G49" formula="1"/>
+    <ignoredError sqref="G52" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18804,7 +18910,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4">
         <v>42939</v>
       </c>
@@ -18815,7 +18921,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="4">
         <v>42945</v>
       </c>
@@ -18826,7 +18932,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="4">
         <v>42946</v>
       </c>
@@ -18837,7 +18943,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="4">
         <v>42952</v>
       </c>
@@ -18848,7 +18954,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="4">
         <v>42953</v>
       </c>
@@ -18859,7 +18965,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="4">
         <v>42958</v>
       </c>
@@ -18870,7 +18976,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="4">
         <v>42959</v>
       </c>
@@ -18881,7 +18987,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="4">
         <v>42960</v>
       </c>
@@ -18892,7 +18998,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="4">
         <v>42974</v>
       </c>
@@ -18903,7 +19009,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="4">
         <v>42973</v>
       </c>
@@ -18914,7 +19020,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="4">
         <v>42967</v>
       </c>
@@ -18925,7 +19031,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="4">
         <v>42966</v>
       </c>
@@ -18936,7 +19042,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -18945,7 +19051,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -18954,7 +19060,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -18963,7 +19069,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -18972,7 +19078,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -18981,7 +19087,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -18990,7 +19096,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
@@ -18999,7 +19105,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7">
         <f t="shared" si="0"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="-2460" windowWidth="25600" windowHeight="17460"/>
+    <workbookView xWindow="31860" yWindow="-3120" windowWidth="25600" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -4335,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="135" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>計算機能</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>戦歴保存</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -262,6 +258,10 @@
     <t>Fragmentの導入</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>HUDの状態保存</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -534,6 +534,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +651,12 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -656,7 +690,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="912">
+  <dxfs count="298">
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -3571,6104 +3605,6 @@
           <color theme="1" tint="0.499984740745262"/>
         </left>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -10013,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10029,19 +3965,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="23"/>
       <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="26"/>
       <c r="J2" s="9">
         <f>J3</f>
@@ -10225,14 +4161,14 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="37"/>
       <c r="J3" s="11">
         <f>Config!B3</f>
         <v>42934</v>
@@ -10415,16 +4351,16 @@
       </c>
     </row>
     <row r="4" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>2</v>
@@ -10628,8 +4564,9 @@
       <c r="D5" s="17">
         <v>18</v>
       </c>
-      <c r="E5" s="27">
-        <v>0.1</v>
+      <c r="E5" s="30">
+        <f>SUM(E6:E51)/COUNTA(E6:E51)</f>
+        <v>0.57079268292682916</v>
       </c>
       <c r="F5" s="21">
         <v>42934</v>
@@ -10830,7 +4767,7 @@
       <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="29">
         <v>1</v>
       </c>
       <c r="F6" s="21">
@@ -11648,14 +5585,15 @@
     <row r="10" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
         <v>3</v>
       </c>
       <c r="E10" s="27">
-        <v>0.75</v>
+        <f>SUM(E11:E15)/COUNTA(E11:E15)</f>
+        <v>0.86</v>
       </c>
       <c r="F10" s="21">
         <v>42936</v>
@@ -11853,7 +5791,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
@@ -12471,13 +6409,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="17">
         <v>3</v>
       </c>
       <c r="E14" s="27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="21">
         <v>42936</v>
@@ -12944,7 +6882,7 @@
       </c>
       <c r="E17" s="28">
         <f>SUM(E18:E37)/COUNT(E18:E37)</f>
-        <v>0.55249999999999999</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="F17" s="21">
         <v>42935</v>
@@ -13348,7 +7286,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -13554,7 +7492,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -13966,7 +7904,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="17">
         <v>2</v>
@@ -14172,7 +8110,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="17">
         <v>2</v>
@@ -14378,7 +8316,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="17">
         <v>2</v>
@@ -14584,7 +8522,7 @@
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17">
         <v>3</v>
@@ -14790,7 +8728,7 @@
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="17">
         <v>3</v>
@@ -14996,13 +8934,13 @@
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="17">
         <v>3</v>
       </c>
       <c r="E27" s="27">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="21">
         <v>42941</v>
@@ -15202,7 +9140,7 @@
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="17">
         <v>2</v>
@@ -15408,7 +9346,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17">
         <v>2</v>
@@ -15426,7 +9364,9 @@
       <c r="H29" s="22">
         <v>42941</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="22">
+        <v>42947</v>
+      </c>
       <c r="J29" s="18" t="str">
         <f t="shared" ref="J29:Y48" si="55">IF($D29="","",IF((J$3&gt;=$F29)*AND(J$3&lt;=$G29),IF($A29="",IF($B29="",3,2),1),""))</f>
         <v/>
@@ -15612,13 +9552,13 @@
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
       </c>
       <c r="E30" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="21">
         <v>42944</v>
@@ -15627,8 +9567,12 @@
         <f t="shared" ref="G30" si="57">IF(D30="","",WORKDAY(F30,D30,非稼働日)-1)</f>
         <v>42947</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="H30" s="22">
+        <v>42944</v>
+      </c>
+      <c r="I30" s="22">
+        <v>42944</v>
+      </c>
       <c r="J30" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -15814,7 +9758,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -15829,7 +9773,9 @@
         <f t="shared" ref="G31:G44" si="58">IF(D31="","",WORKDAY(F31,D31,非稼働日)-1)</f>
         <v>42949</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="22">
+        <v>42947</v>
+      </c>
       <c r="I31" s="22"/>
       <c r="J31" s="18" t="str">
         <f t="shared" si="55"/>
@@ -16016,7 +9962,7 @@
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
@@ -16031,7 +9977,9 @@
         <f t="shared" ref="G32:G34" si="59">IF(D32="","",WORKDAY(F32,D32,非稼働日)-1)</f>
         <v>42949</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="22">
+        <v>42947</v>
+      </c>
       <c r="I32" s="22"/>
       <c r="J32" s="18" t="str">
         <f t="shared" si="55"/>
@@ -16203,7 +10151,7 @@
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="17">
         <v>2</v>
@@ -16218,7 +10166,9 @@
         <f t="shared" si="59"/>
         <v>42949</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="21">
+        <v>42942</v>
+      </c>
       <c r="I33" s="22"/>
       <c r="J33" s="18" t="str">
         <f t="shared" si="55"/>
@@ -16405,7 +10355,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="17">
         <v>2</v>
@@ -16420,7 +10370,9 @@
         <f t="shared" si="59"/>
         <v>42949</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="22">
+        <v>42941</v>
+      </c>
       <c r="I34" s="22"/>
       <c r="J34" s="18" t="str">
         <f t="shared" si="55"/>
@@ -16607,7 +10559,7 @@
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
@@ -16809,7 +10761,7 @@
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -17011,7 +10963,7 @@
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17">
         <v>2</v>
@@ -17403,14 +11355,15 @@
     <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
         <v>6</v>
       </c>
       <c r="E39" s="27">
-        <v>0</v>
+        <f>SUM(E40:E43)/COUNT(E40:E43)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F39" s="21">
         <v>42942</v>
@@ -17419,7 +11372,9 @@
         <f t="shared" si="58"/>
         <v>42949</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="21">
+        <v>42942</v>
+      </c>
       <c r="I39" s="22"/>
       <c r="J39" s="18" t="str">
         <f t="shared" si="55"/>
@@ -17606,13 +11561,13 @@
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17">
         <v>2</v>
       </c>
       <c r="E40" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F40" s="21">
         <v>42942</v>
@@ -17621,7 +11576,9 @@
         <f t="shared" si="58"/>
         <v>42943</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="21">
+        <v>42942</v>
+      </c>
       <c r="I40" s="22"/>
       <c r="J40" s="18" t="str">
         <f t="shared" si="55"/>
@@ -17808,13 +11765,13 @@
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17">
         <v>6</v>
       </c>
       <c r="E41" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F41" s="21">
         <v>42942</v>
@@ -17823,7 +11780,9 @@
         <f t="shared" ref="G41" si="66">IF(D41="","",WORKDAY(F41,D41,非稼働日)-1)</f>
         <v>42949</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="21">
+        <v>42942</v>
+      </c>
       <c r="I41" s="22"/>
       <c r="J41" s="18" t="str">
         <f t="shared" si="55"/>
@@ -18010,13 +11969,13 @@
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
       </c>
       <c r="E42" s="27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F42" s="21">
         <v>42947</v>
@@ -18025,7 +11984,9 @@
         <f t="shared" si="58"/>
         <v>42948</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="21">
+        <v>42942</v>
+      </c>
       <c r="I42" s="22"/>
       <c r="J42" s="18" t="str">
         <f t="shared" si="55"/>
@@ -18212,7 +12173,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17">
         <v>2</v>
@@ -18801,7 +12762,7 @@
     <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
@@ -19004,7 +12965,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17">
         <v>2</v>
@@ -19206,7 +13167,7 @@
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
@@ -19463,7 +13424,7 @@
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17">
@@ -19666,7 +13627,7 @@
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17">
         <v>1</v>
@@ -20061,7 +14022,7 @@
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
@@ -20265,7 +14226,7 @@
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="17">
         <v>2</v>
@@ -20467,7 +14428,7 @@
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17">
         <v>2</v>
@@ -20669,7 +14630,7 @@
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17">
         <v>4</v>
@@ -24129,7 +18090,7 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4">
         <v>42939</v>
       </c>
@@ -24140,7 +18101,7 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4">
         <v>42945</v>
       </c>
@@ -24151,7 +18112,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4">
         <v>42946</v>
       </c>
@@ -24162,7 +18123,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4">
         <v>42952</v>
       </c>
@@ -24173,7 +18134,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="4">
         <v>42953</v>
       </c>
@@ -24184,7 +18145,7 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4">
         <v>42958</v>
       </c>
@@ -24195,7 +18156,7 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4">
         <v>42959</v>
       </c>
@@ -24206,7 +18167,7 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="4">
         <v>42960</v>
       </c>
@@ -24217,7 +18178,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="4">
         <v>42974</v>
       </c>
@@ -24228,7 +18189,7 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="4">
         <v>42973</v>
       </c>
@@ -24239,7 +18200,7 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="4">
         <v>42967</v>
       </c>
@@ -24250,7 +18211,7 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="4">
         <v>42966</v>
       </c>
@@ -24261,7 +18222,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -24270,7 +18231,7 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
@@ -24279,7 +18240,7 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
@@ -24288,7 +18249,7 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
@@ -24297,7 +18258,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7">
         <f t="shared" si="0"/>
@@ -24306,7 +18267,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
@@ -24315,7 +18276,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7">
         <f t="shared" si="0"/>
@@ -24324,7 +18285,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7">
         <f t="shared" si="0"/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="29060" yWindow="-600" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -3949,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="135" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="E5" s="30">
         <f>SUM(E6:E51)/COUNTA(E6:E51)</f>
-        <v>0.57079268292682916</v>
+        <v>0.60280487804878047</v>
       </c>
       <c r="F5" s="21">
         <v>42934</v>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E17" s="28">
         <f>SUM(E18:E37)/COUNT(E18:E37)</f>
-        <v>0.64249999999999996</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="F17" s="21">
         <v>42935</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="27">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F29" s="21">
         <v>42942</v>
@@ -9764,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" s="21">
         <v>42948</v>
@@ -9968,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="21">
         <v>42948</v>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29060" yWindow="-600" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="28800" yWindow="-3080" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>Fragmentの導入</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DROP</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3949,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4566,7 +4570,7 @@
       </c>
       <c r="E5" s="30">
         <f>SUM(E6:E51)/COUNTA(E6:E51)</f>
-        <v>0.60280487804878047</v>
+        <v>0.63609756097560977</v>
       </c>
       <c r="F5" s="21">
         <v>42934</v>
@@ -6882,7 +6886,7 @@
       </c>
       <c r="E17" s="28">
         <f>SUM(E18:E37)/COUNT(E18:E37)</f>
-        <v>0.70499999999999996</v>
+        <v>0.77</v>
       </c>
       <c r="F17" s="21">
         <v>42935</v>
@@ -9758,7 +9762,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -9776,7 +9780,9 @@
       <c r="H31" s="22">
         <v>42947</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="J31" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9980,7 +9986,9 @@
       <c r="H32" s="22">
         <v>42947</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="22">
+        <v>42950</v>
+      </c>
       <c r="J32" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10157,7 +10165,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="27">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="21">
         <v>42948</v>
@@ -10169,7 +10177,9 @@
       <c r="H33" s="21">
         <v>42942</v>
       </c>
-      <c r="I33" s="22"/>
+      <c r="I33" s="22">
+        <v>42950</v>
+      </c>
       <c r="J33" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10361,7 +10371,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="21">
         <v>42948</v>
@@ -10373,7 +10383,9 @@
       <c r="H34" s="22">
         <v>42941</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="22">
+        <v>42950</v>
+      </c>
       <c r="J34" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>

--- a/Document/WBS.xlsx
+++ b/Document/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3080" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プレーヤーにタグ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>進捗</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -266,17 +262,22 @@
     <t>HUDの状態保存</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>API接続</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="0\ &quot;日&quot;"/>
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="m"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -658,7 +659,7 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3953,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4166,11 +4167,11 @@
     </row>
     <row r="3" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F3" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="37"/>
       <c r="J3" s="11">
@@ -4364,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>2</v>
@@ -4570,7 +4571,7 @@
       </c>
       <c r="E5" s="30">
         <f>SUM(E6:E51)/COUNTA(E6:E51)</f>
-        <v>0.63609756097560977</v>
+        <v>0.80914634146341458</v>
       </c>
       <c r="F5" s="21">
         <v>42934</v>
@@ -4579,7 +4580,9 @@
         <f t="shared" ref="G5:G67" si="33">IF(D5="","",WORKDAY(F5,D5,非稼働日)-1)</f>
         <v>42960</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="21">
+        <v>42934</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="18">
         <f t="shared" ref="J5:S15" si="34">IF($D5="","",IF((J$3&gt;=$F5)*AND(J$3&lt;=$G5),IF($A5="",IF($B5="",3,2),1),""))</f>
@@ -5589,7 +5592,7 @@
     <row r="10" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
@@ -5795,7 +5798,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
@@ -6413,7 +6416,7 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="17">
         <v>3</v>
@@ -6886,7 +6889,7 @@
       </c>
       <c r="E17" s="28">
         <f>SUM(E18:E37)/COUNT(E18:E37)</f>
-        <v>0.77</v>
+        <v>0.96500000000000008</v>
       </c>
       <c r="F17" s="21">
         <v>42935</v>
@@ -6898,7 +6901,9 @@
       <c r="H17" s="21">
         <v>42934</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="22">
+        <v>42954</v>
+      </c>
       <c r="J17" s="18" t="str">
         <f t="shared" ref="J17:Y23" si="41">IF($D17="","",IF((J$3&gt;=$F17)*AND(J$3&lt;=$G17),IF($A17="",IF($B17="",3,2),1),""))</f>
         <v/>
@@ -7290,7 +7295,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -7496,7 +7501,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -7908,7 +7913,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="17">
         <v>2</v>
@@ -8114,7 +8119,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="17">
         <v>2</v>
@@ -8320,7 +8325,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="17">
         <v>2</v>
@@ -8732,7 +8737,7 @@
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="17">
         <v>3</v>
@@ -8938,7 +8943,7 @@
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="17">
         <v>3</v>
@@ -9144,7 +9149,7 @@
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="17">
         <v>2</v>
@@ -9350,7 +9355,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="17">
         <v>2</v>
@@ -9556,7 +9561,7 @@
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
@@ -9762,13 +9767,13 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
       </c>
       <c r="E31" s="27">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="21">
         <v>42948</v>
@@ -9781,7 +9786,7 @@
         <v>42947</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="18" t="str">
         <f t="shared" si="55"/>
@@ -9968,13 +9973,13 @@
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
       </c>
       <c r="E32" s="27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F32" s="21">
         <v>42948</v>
@@ -10159,7 +10164,7 @@
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="17">
         <v>2</v>
@@ -10365,7 +10370,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="17">
         <v>2</v>
@@ -10571,13 +10576,13 @@
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="21">
         <v>42949</v>
@@ -10586,8 +10591,12 @@
         <f t="shared" si="58"/>
         <v>42949</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="22">
+        <v>42951</v>
+      </c>
+      <c r="I35" s="22">
+        <v>42954</v>
+      </c>
       <c r="J35" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10779,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="21">
         <v>42949</v>
@@ -10788,8 +10797,12 @@
         <f t="shared" si="58"/>
         <v>42949</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="H36" s="22">
+        <v>42951</v>
+      </c>
+      <c r="I36" s="22">
+        <v>42954</v>
+      </c>
       <c r="J36" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10975,13 +10988,13 @@
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D37" s="17">
         <v>2</v>
       </c>
       <c r="E37" s="27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" s="21">
         <v>42950</v>
@@ -10990,7 +11003,9 @@
         <f t="shared" si="58"/>
         <v>42953</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="22">
+        <v>42951</v>
+      </c>
       <c r="I37" s="22"/>
       <c r="J37" s="18" t="str">
         <f t="shared" si="55"/>
@@ -11367,7 +11382,7 @@
     <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
@@ -11573,7 +11588,7 @@
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17">
         <v>2</v>
@@ -11777,7 +11792,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17">
         <v>6</v>
@@ -11981,7 +11996,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
@@ -12185,7 +12200,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="17">
         <v>2</v>
@@ -12781,7 +12796,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="21">
         <v>42951</v>
@@ -12790,8 +12805,12 @@
         <f t="shared" si="33"/>
         <v>42954</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="H46" s="22">
+        <v>42952</v>
+      </c>
+      <c r="I46" s="22">
+        <v>42955</v>
+      </c>
       <c r="J46" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -12983,7 +13002,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="21">
         <v>42951</v>
@@ -12992,8 +13011,12 @@
         <f t="shared" si="33"/>
         <v>42954</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="H47" s="22">
+        <v>42952</v>
+      </c>
+      <c r="I47" s="22">
+        <v>42955</v>
+      </c>
       <c r="J47" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -13185,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="21">
         <v>42954</v>
@@ -13194,8 +13217,12 @@
         <f t="shared" si="33"/>
         <v>42954</v>
       </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="H48" s="22">
+        <v>42952</v>
+      </c>
+      <c r="I48" s="22">
+        <v>42953</v>
+      </c>
       <c r="J48" s="18" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -14034,7 +14061,7 @@
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17">
@@ -14238,7 +14265,7 @@
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="17">
         <v>2</v>
@@ -14440,7 +14467,7 @@
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17">
         <v>2</v>
@@ -14642,7 +14669,7 @@
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17">
         <v>4</v>
